--- a/美团/酒店二期提测/美团酒店字典表/006-美团酒店服务设施字典.xlsx
+++ b/美团/酒店二期提测/美团酒店字典表/006-美团酒店服务设施字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12000" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="国内酒店-设施" sheetId="1" r:id="rId1"/>
@@ -6703,11 +6703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F2901"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C374" sqref="C374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -6737,7 +6737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" hidden="1" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
@@ -6753,7 +6753,7 @@
       <c r="E2" s="30"/>
       <c r="F2" s="31"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" hidden="1" spans="1:6">
       <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="E3" s="30"/>
       <c r="F3" s="31"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" hidden="1" spans="1:6">
       <c r="A4" s="29" t="s">
         <v>9</v>
       </c>
@@ -6785,7 +6785,7 @@
       <c r="E4" s="30"/>
       <c r="F4" s="31"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" hidden="1" spans="1:6">
       <c r="A5" s="29" t="s">
         <v>10</v>
       </c>
@@ -6801,7 +6801,7 @@
       <c r="E5" s="30"/>
       <c r="F5" s="31"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" hidden="1" spans="1:6">
       <c r="A6" s="29" t="s">
         <v>11</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="E6" s="30"/>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" hidden="1" spans="1:6">
       <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
@@ -6833,7 +6833,7 @@
       <c r="E7" s="30"/>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" hidden="1" spans="1:6">
       <c r="A8" s="29" t="s">
         <v>13</v>
       </c>
@@ -6849,7 +6849,7 @@
       <c r="E8" s="30"/>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" ht="18" spans="1:6">
+    <row r="9" ht="18" hidden="1" spans="1:6">
       <c r="A9" s="29" t="s">
         <v>14</v>
       </c>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" ht="18" spans="1:6">
+    <row r="10" ht="18" hidden="1" spans="1:6">
       <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="F10" s="31"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" hidden="1" spans="1:6">
       <c r="A11" s="29" t="s">
         <v>18</v>
       </c>
@@ -6901,7 +6901,7 @@
       <c r="E11" s="30"/>
       <c r="F11" s="31"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" hidden="1" spans="1:6">
       <c r="A12" s="29" t="s">
         <v>19</v>
       </c>
@@ -6917,7 +6917,7 @@
       <c r="E12" s="30"/>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" hidden="1" spans="1:6">
       <c r="A13" s="29" t="s">
         <v>20</v>
       </c>
@@ -6933,7 +6933,7 @@
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" hidden="1" spans="1:6">
       <c r="A14" s="29" t="s">
         <v>21</v>
       </c>
@@ -6949,7 +6949,7 @@
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" hidden="1" spans="1:6">
       <c r="A15" s="29" t="s">
         <v>22</v>
       </c>
@@ -6965,7 +6965,7 @@
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" hidden="1" spans="1:6">
       <c r="A16" s="29" t="s">
         <v>23</v>
       </c>
@@ -6981,7 +6981,7 @@
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" hidden="1" spans="1:6">
       <c r="A17" s="29" t="s">
         <v>24</v>
       </c>
@@ -6997,7 +6997,7 @@
       <c r="E17" s="30"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" hidden="1" spans="1:6">
       <c r="A18" s="29" t="s">
         <v>25</v>
       </c>
@@ -7013,7 +7013,7 @@
       <c r="E18" s="30"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" hidden="1" spans="1:6">
       <c r="A19" s="29" t="s">
         <v>26</v>
       </c>
@@ -7029,7 +7029,7 @@
       <c r="E19" s="30"/>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" hidden="1" spans="1:6">
       <c r="A20" s="29" t="s">
         <v>27</v>
       </c>
@@ -7045,7 +7045,7 @@
       <c r="E20" s="30"/>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" hidden="1" spans="1:6">
       <c r="A21" s="29" t="s">
         <v>28</v>
       </c>
@@ -7061,7 +7061,7 @@
       <c r="E21" s="30"/>
       <c r="F21" s="31"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" hidden="1" spans="1:6">
       <c r="A22" s="29" t="s">
         <v>29</v>
       </c>
@@ -7077,7 +7077,7 @@
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" hidden="1" spans="1:6">
       <c r="A23" s="29" t="s">
         <v>30</v>
       </c>
@@ -7093,7 +7093,7 @@
       <c r="E23" s="30"/>
       <c r="F23" s="31"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" hidden="1" spans="1:6">
       <c r="A24" s="29" t="s">
         <v>31</v>
       </c>
@@ -7109,7 +7109,7 @@
       <c r="E24" s="30"/>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" hidden="1" spans="1:6">
       <c r="A25" s="29" t="s">
         <v>32</v>
       </c>
@@ -7125,7 +7125,7 @@
       <c r="E25" s="30"/>
       <c r="F25" s="31"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" hidden="1" spans="1:6">
       <c r="A26" s="29" t="s">
         <v>33</v>
       </c>
@@ -7141,7 +7141,7 @@
       <c r="E26" s="30"/>
       <c r="F26" s="31"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" hidden="1" spans="1:6">
       <c r="A27" s="29" t="s">
         <v>34</v>
       </c>
@@ -7157,7 +7157,7 @@
       <c r="E27" s="30"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" hidden="1" spans="1:6">
       <c r="A28" s="29" t="s">
         <v>35</v>
       </c>
@@ -7173,7 +7173,7 @@
       <c r="E28" s="30"/>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" hidden="1" spans="1:6">
       <c r="A29" s="29" t="s">
         <v>36</v>
       </c>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" hidden="1" spans="1:6">
       <c r="A30" s="29" t="s">
         <v>38</v>
       </c>
@@ -7207,7 +7207,7 @@
       <c r="E30" s="30"/>
       <c r="F30" s="31"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" hidden="1" spans="1:6">
       <c r="A31" s="29" t="s">
         <v>39</v>
       </c>
@@ -7223,7 +7223,7 @@
       <c r="E31" s="30"/>
       <c r="F31" s="31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" hidden="1" spans="1:6">
       <c r="A32" s="29" t="s">
         <v>40</v>
       </c>
@@ -7239,7 +7239,7 @@
       <c r="E32" s="30"/>
       <c r="F32" s="31"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" hidden="1" spans="1:6">
       <c r="A33" s="29" t="s">
         <v>41</v>
       </c>
@@ -7255,7 +7255,7 @@
       <c r="E33" s="30"/>
       <c r="F33" s="31"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" hidden="1" spans="1:6">
       <c r="A34" s="29" t="s">
         <v>42</v>
       </c>
@@ -7271,7 +7271,7 @@
       <c r="E34" s="30"/>
       <c r="F34" s="31"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" hidden="1" spans="1:6">
       <c r="A35" s="29" t="s">
         <v>43</v>
       </c>
@@ -7287,7 +7287,7 @@
       <c r="E35" s="30"/>
       <c r="F35" s="31"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" hidden="1" spans="1:6">
       <c r="A36" s="29" t="s">
         <v>44</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="E36" s="30"/>
       <c r="F36" s="31"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" hidden="1" spans="1:6">
       <c r="A37" s="29" t="s">
         <v>45</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="E37" s="30"/>
       <c r="F37" s="31"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" hidden="1" spans="1:6">
       <c r="A38" s="29" t="s">
         <v>46</v>
       </c>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="F38" s="31"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" hidden="1" spans="1:6">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="F39" s="31"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" hidden="1" spans="1:6">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="F40" s="31"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" hidden="1" spans="1:6">
       <c r="A41" s="29" t="s">
         <v>50</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="E41" s="30"/>
       <c r="F41" s="31"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" hidden="1" spans="1:6">
       <c r="A42" s="29" t="s">
         <v>51</v>
       </c>
@@ -7384,7 +7384,7 @@
       <c r="E42" s="30"/>
       <c r="F42" s="31"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" hidden="1" spans="1:6">
       <c r="A43" s="29" t="s">
         <v>52</v>
       </c>
@@ -7400,7 +7400,7 @@
       <c r="E43" s="30"/>
       <c r="F43" s="31"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" hidden="1" spans="1:6">
       <c r="A44" s="29" t="s">
         <v>53</v>
       </c>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="F44" s="31"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" hidden="1" spans="1:6">
       <c r="A45" s="29" t="s">
         <v>56</v>
       </c>
@@ -7434,7 +7434,7 @@
       <c r="E45" s="30"/>
       <c r="F45" s="31"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" hidden="1" spans="1:6">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -7444,7 +7444,7 @@
       <c r="E46" s="30"/>
       <c r="F46" s="31"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" hidden="1" spans="1:6">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -7454,7 +7454,7 @@
       <c r="E47" s="30"/>
       <c r="F47" s="31"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" hidden="1" spans="1:6">
       <c r="A48" s="29" t="s">
         <v>60</v>
       </c>
@@ -7470,7 +7470,7 @@
       <c r="E48" s="30"/>
       <c r="F48" s="31"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" hidden="1" spans="1:6">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -7480,7 +7480,7 @@
       <c r="E49" s="30"/>
       <c r="F49" s="31"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" hidden="1" spans="1:6">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -7490,7 +7490,7 @@
       <c r="E50" s="30"/>
       <c r="F50" s="31"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" hidden="1" spans="1:6">
       <c r="A51" s="29" t="s">
         <v>61</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="E51" s="30"/>
       <c r="F51" s="31"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" hidden="1" spans="1:6">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -7516,7 +7516,7 @@
       <c r="E52" s="30"/>
       <c r="F52" s="31"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" hidden="1" spans="1:6">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -7526,7 +7526,7 @@
       <c r="E53" s="30"/>
       <c r="F53" s="31"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" hidden="1" spans="1:6">
       <c r="A54" s="29" t="s">
         <v>62</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="E54" s="30"/>
       <c r="F54" s="31"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" hidden="1" spans="1:6">
       <c r="A55" s="29"/>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
@@ -7552,7 +7552,7 @@
       <c r="E55" s="30"/>
       <c r="F55" s="31"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" hidden="1" spans="1:6">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -7562,7 +7562,7 @@
       <c r="E56" s="30"/>
       <c r="F56" s="31"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" hidden="1" spans="1:6">
       <c r="A57" s="29" t="s">
         <v>63</v>
       </c>
@@ -7578,7 +7578,7 @@
       <c r="E57" s="30"/>
       <c r="F57" s="31"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" hidden="1" spans="1:6">
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
@@ -7588,7 +7588,7 @@
       <c r="E58" s="30"/>
       <c r="F58" s="31"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" hidden="1" spans="1:6">
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -7598,7 +7598,7 @@
       <c r="E59" s="30"/>
       <c r="F59" s="31"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" hidden="1" spans="1:6">
       <c r="A60" s="29" t="s">
         <v>64</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="E60" s="30"/>
       <c r="F60" s="31"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" hidden="1" spans="1:6">
       <c r="A61" s="29"/>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
@@ -7624,7 +7624,7 @@
       <c r="E61" s="30"/>
       <c r="F61" s="31"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" hidden="1" spans="1:6">
       <c r="A62" s="29"/>
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
@@ -7634,7 +7634,7 @@
       <c r="E62" s="30"/>
       <c r="F62" s="31"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" hidden="1" spans="1:6">
       <c r="A63" s="29"/>
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
@@ -7644,7 +7644,7 @@
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" hidden="1" spans="1:6">
       <c r="A64" s="29"/>
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
@@ -7654,7 +7654,7 @@
       <c r="E64" s="30"/>
       <c r="F64" s="31"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" hidden="1" spans="1:6">
       <c r="A65" s="29" t="s">
         <v>65</v>
       </c>
@@ -7670,7 +7670,7 @@
       <c r="E65" s="30"/>
       <c r="F65" s="31"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" hidden="1" spans="1:6">
       <c r="A66" s="29"/>
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
@@ -7680,7 +7680,7 @@
       <c r="E66" s="30"/>
       <c r="F66" s="31"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" hidden="1" spans="1:6">
       <c r="A67" s="29"/>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -7690,7 +7690,7 @@
       <c r="E67" s="30"/>
       <c r="F67" s="31"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" hidden="1" spans="1:6">
       <c r="A68" s="29" t="s">
         <v>66</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="E68" s="30"/>
       <c r="F68" s="31"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" hidden="1" spans="1:6">
       <c r="A69" s="29"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
@@ -7716,7 +7716,7 @@
       <c r="E69" s="30"/>
       <c r="F69" s="31"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" hidden="1" spans="1:6">
       <c r="A70" s="29"/>
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
@@ -7726,7 +7726,7 @@
       <c r="E70" s="30"/>
       <c r="F70" s="31"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" hidden="1" spans="1:6">
       <c r="A71" s="29" t="s">
         <v>67</v>
       </c>
@@ -7742,7 +7742,7 @@
       <c r="E71" s="30"/>
       <c r="F71" s="31"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" hidden="1" spans="1:6">
       <c r="A72" s="29"/>
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
@@ -7752,7 +7752,7 @@
       <c r="E72" s="30"/>
       <c r="F72" s="31"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" hidden="1" spans="1:6">
       <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -7762,7 +7762,7 @@
       <c r="E73" s="30"/>
       <c r="F73" s="31"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" hidden="1" spans="1:6">
       <c r="A74" s="29"/>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
@@ -7772,7 +7772,7 @@
       <c r="E74" s="30"/>
       <c r="F74" s="31"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" hidden="1" spans="1:6">
       <c r="A75" s="29"/>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
@@ -7782,7 +7782,7 @@
       <c r="E75" s="30"/>
       <c r="F75" s="31"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" hidden="1" spans="1:6">
       <c r="A76" s="29" t="s">
         <v>68</v>
       </c>
@@ -7798,7 +7798,7 @@
       <c r="E76" s="30"/>
       <c r="F76" s="31"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" hidden="1" spans="1:6">
       <c r="A77" s="29"/>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
@@ -7808,7 +7808,7 @@
       <c r="E77" s="30"/>
       <c r="F77" s="31"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" hidden="1" spans="1:6">
       <c r="A78" s="29"/>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
@@ -7818,7 +7818,7 @@
       <c r="E78" s="30"/>
       <c r="F78" s="31"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" hidden="1" spans="1:6">
       <c r="A79" s="29" t="s">
         <v>69</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="E79" s="30"/>
       <c r="F79" s="31"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" hidden="1" spans="1:6">
       <c r="A80" s="29"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
@@ -7844,7 +7844,7 @@
       <c r="E80" s="30"/>
       <c r="F80" s="31"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" hidden="1" spans="1:6">
       <c r="A81" s="29"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
@@ -7854,7 +7854,7 @@
       <c r="E81" s="30"/>
       <c r="F81" s="31"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" hidden="1" spans="1:6">
       <c r="A82" s="29"/>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
@@ -7864,7 +7864,7 @@
       <c r="E82" s="30"/>
       <c r="F82" s="31"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" hidden="1" spans="1:6">
       <c r="A83" s="29"/>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
@@ -7874,7 +7874,7 @@
       <c r="E83" s="30"/>
       <c r="F83" s="31"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" hidden="1" spans="1:6">
       <c r="A84" s="29" t="s">
         <v>71</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="E84" s="30"/>
       <c r="F84" s="31"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" hidden="1" spans="1:6">
       <c r="A85" s="29"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
@@ -7900,7 +7900,7 @@
       <c r="E85" s="30"/>
       <c r="F85" s="31"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" hidden="1" spans="1:6">
       <c r="A86" s="29"/>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
@@ -7910,7 +7910,7 @@
       <c r="E86" s="30"/>
       <c r="F86" s="31"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" hidden="1" spans="1:6">
       <c r="A87" s="29"/>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
@@ -7920,7 +7920,7 @@
       <c r="E87" s="30"/>
       <c r="F87" s="31"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" hidden="1" spans="1:6">
       <c r="A88" s="29"/>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
@@ -7930,7 +7930,7 @@
       <c r="E88" s="30"/>
       <c r="F88" s="31"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" hidden="1" spans="1:6">
       <c r="A89" s="29" t="s">
         <v>72</v>
       </c>
@@ -7946,7 +7946,7 @@
       <c r="E89" s="30"/>
       <c r="F89" s="31"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" hidden="1" spans="1:6">
       <c r="A90" s="29"/>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
@@ -7956,7 +7956,7 @@
       <c r="E90" s="30"/>
       <c r="F90" s="31"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" hidden="1" spans="1:6">
       <c r="A91" s="29"/>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
@@ -7966,7 +7966,7 @@
       <c r="E91" s="30"/>
       <c r="F91" s="31"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" hidden="1" spans="1:6">
       <c r="A92" s="29" t="s">
         <v>73</v>
       </c>
@@ -7982,7 +7982,7 @@
       <c r="E92" s="30"/>
       <c r="F92" s="31"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" hidden="1" spans="1:6">
       <c r="A93" s="29"/>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
@@ -7992,7 +7992,7 @@
       <c r="E93" s="30"/>
       <c r="F93" s="31"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" hidden="1" spans="1:6">
       <c r="A94" s="29"/>
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
@@ -8002,7 +8002,7 @@
       <c r="E94" s="30"/>
       <c r="F94" s="31"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" hidden="1" spans="1:6">
       <c r="A95" s="29" t="s">
         <v>74</v>
       </c>
@@ -8018,7 +8018,7 @@
       <c r="E95" s="30"/>
       <c r="F95" s="31"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" hidden="1" spans="1:6">
       <c r="A96" s="29"/>
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
@@ -8028,7 +8028,7 @@
       <c r="E96" s="30"/>
       <c r="F96" s="31"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" hidden="1" spans="1:6">
       <c r="A97" s="29"/>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
@@ -8038,7 +8038,7 @@
       <c r="E97" s="30"/>
       <c r="F97" s="31"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" hidden="1" spans="1:6">
       <c r="A98" s="29" t="s">
         <v>75</v>
       </c>
@@ -8054,7 +8054,7 @@
       <c r="E98" s="30"/>
       <c r="F98" s="31"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" hidden="1" spans="1:6">
       <c r="A99" s="29"/>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -8064,7 +8064,7 @@
       <c r="E99" s="30"/>
       <c r="F99" s="31"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" hidden="1" spans="1:6">
       <c r="A100" s="29"/>
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
@@ -8074,7 +8074,7 @@
       <c r="E100" s="30"/>
       <c r="F100" s="31"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" hidden="1" spans="1:6">
       <c r="A101" s="29" t="s">
         <v>77</v>
       </c>
@@ -8090,7 +8090,7 @@
       <c r="E101" s="30"/>
       <c r="F101" s="31"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" hidden="1" spans="1:6">
       <c r="A102" s="29"/>
       <c r="B102" s="29"/>
       <c r="C102" s="29"/>
@@ -8100,7 +8100,7 @@
       <c r="E102" s="30"/>
       <c r="F102" s="31"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" hidden="1" spans="1:6">
       <c r="A103" s="29"/>
       <c r="B103" s="29"/>
       <c r="C103" s="29"/>
@@ -8110,7 +8110,7 @@
       <c r="E103" s="30"/>
       <c r="F103" s="31"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" hidden="1" spans="1:6">
       <c r="A104" s="29" t="s">
         <v>78</v>
       </c>
@@ -8126,7 +8126,7 @@
       <c r="E104" s="30"/>
       <c r="F104" s="31"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" hidden="1" spans="1:6">
       <c r="A105" s="29"/>
       <c r="B105" s="29"/>
       <c r="C105" s="29"/>
@@ -8136,7 +8136,7 @@
       <c r="E105" s="30"/>
       <c r="F105" s="31"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" hidden="1" spans="1:6">
       <c r="A106" s="29"/>
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
@@ -8146,7 +8146,7 @@
       <c r="E106" s="30"/>
       <c r="F106" s="31"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" hidden="1" spans="1:6">
       <c r="A107" s="29"/>
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
@@ -8156,7 +8156,7 @@
       <c r="E107" s="30"/>
       <c r="F107" s="31"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" hidden="1" spans="1:6">
       <c r="A108" s="29"/>
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
@@ -8166,7 +8166,7 @@
       <c r="E108" s="30"/>
       <c r="F108" s="31"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" hidden="1" spans="1:6">
       <c r="A109" s="29" t="s">
         <v>79</v>
       </c>
@@ -8182,7 +8182,7 @@
       <c r="E109" s="30"/>
       <c r="F109" s="31"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" hidden="1" spans="1:6">
       <c r="A110" s="29"/>
       <c r="B110" s="29"/>
       <c r="C110" s="29"/>
@@ -8192,7 +8192,7 @@
       <c r="E110" s="30"/>
       <c r="F110" s="31"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" hidden="1" spans="1:6">
       <c r="A111" s="29"/>
       <c r="B111" s="29"/>
       <c r="C111" s="29"/>
@@ -8202,7 +8202,7 @@
       <c r="E111" s="30"/>
       <c r="F111" s="31"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" hidden="1" spans="1:6">
       <c r="A112" s="29" t="s">
         <v>80</v>
       </c>
@@ -8218,7 +8218,7 @@
       <c r="E112" s="30"/>
       <c r="F112" s="31"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" hidden="1" spans="1:6">
       <c r="A113" s="29"/>
       <c r="B113" s="29"/>
       <c r="C113" s="29"/>
@@ -8228,7 +8228,7 @@
       <c r="E113" s="30"/>
       <c r="F113" s="31"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" hidden="1" spans="1:6">
       <c r="A114" s="29"/>
       <c r="B114" s="29"/>
       <c r="C114" s="29"/>
@@ -8238,7 +8238,7 @@
       <c r="E114" s="30"/>
       <c r="F114" s="31"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" hidden="1" spans="1:6">
       <c r="A115" s="29" t="s">
         <v>81</v>
       </c>
@@ -8254,7 +8254,7 @@
       <c r="E115" s="30"/>
       <c r="F115" s="31"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" hidden="1" spans="1:6">
       <c r="A116" s="29"/>
       <c r="B116" s="29"/>
       <c r="C116" s="29"/>
@@ -8264,7 +8264,7 @@
       <c r="E116" s="30"/>
       <c r="F116" s="31"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" hidden="1" spans="1:6">
       <c r="A117" s="29"/>
       <c r="B117" s="29"/>
       <c r="C117" s="29"/>
@@ -8274,7 +8274,7 @@
       <c r="E117" s="30"/>
       <c r="F117" s="31"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" hidden="1" spans="1:6">
       <c r="A118" s="29"/>
       <c r="B118" s="29"/>
       <c r="C118" s="29"/>
@@ -8284,7 +8284,7 @@
       <c r="E118" s="30"/>
       <c r="F118" s="31"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" hidden="1" spans="1:6">
       <c r="A119" s="29"/>
       <c r="B119" s="29"/>
       <c r="C119" s="29"/>
@@ -8294,7 +8294,7 @@
       <c r="E119" s="30"/>
       <c r="F119" s="31"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" hidden="1" spans="1:6">
       <c r="A120" s="29" t="s">
         <v>82</v>
       </c>
@@ -8310,7 +8310,7 @@
       <c r="E120" s="30"/>
       <c r="F120" s="31"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" hidden="1" spans="1:6">
       <c r="A121" s="29"/>
       <c r="B121" s="29"/>
       <c r="C121" s="29"/>
@@ -8320,7 +8320,7 @@
       <c r="E121" s="30"/>
       <c r="F121" s="31"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" hidden="1" spans="1:6">
       <c r="A122" s="29"/>
       <c r="B122" s="29"/>
       <c r="C122" s="29"/>
@@ -8330,7 +8330,7 @@
       <c r="E122" s="30"/>
       <c r="F122" s="31"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" hidden="1" spans="1:6">
       <c r="A123" s="29"/>
       <c r="B123" s="29"/>
       <c r="C123" s="29"/>
@@ -8340,7 +8340,7 @@
       <c r="E123" s="30"/>
       <c r="F123" s="31"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" hidden="1" spans="1:6">
       <c r="A124" s="29"/>
       <c r="B124" s="29"/>
       <c r="C124" s="29"/>
@@ -8350,7 +8350,7 @@
       <c r="E124" s="30"/>
       <c r="F124" s="31"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" hidden="1" spans="1:6">
       <c r="A125" s="29" t="s">
         <v>83</v>
       </c>
@@ -8366,7 +8366,7 @@
       <c r="E125" s="30"/>
       <c r="F125" s="31"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" hidden="1" spans="1:6">
       <c r="A126" s="29"/>
       <c r="B126" s="29"/>
       <c r="C126" s="29"/>
@@ -8376,7 +8376,7 @@
       <c r="E126" s="30"/>
       <c r="F126" s="31"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" hidden="1" spans="1:6">
       <c r="A127" s="29"/>
       <c r="B127" s="29"/>
       <c r="C127" s="29"/>
@@ -8386,7 +8386,7 @@
       <c r="E127" s="30"/>
       <c r="F127" s="31"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" hidden="1" spans="1:6">
       <c r="A128" s="29" t="s">
         <v>84</v>
       </c>
@@ -8402,7 +8402,7 @@
       <c r="E128" s="30"/>
       <c r="F128" s="31"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" hidden="1" spans="1:6">
       <c r="A129" s="29"/>
       <c r="B129" s="29"/>
       <c r="C129" s="29"/>
@@ -8412,7 +8412,7 @@
       <c r="E129" s="30"/>
       <c r="F129" s="31"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" hidden="1" spans="1:6">
       <c r="A130" s="29"/>
       <c r="B130" s="29"/>
       <c r="C130" s="29"/>
@@ -8422,7 +8422,7 @@
       <c r="E130" s="30"/>
       <c r="F130" s="31"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" hidden="1" spans="1:6">
       <c r="A131" s="29" t="s">
         <v>85</v>
       </c>
@@ -8438,7 +8438,7 @@
       <c r="E131" s="30"/>
       <c r="F131" s="31"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" hidden="1" spans="1:6">
       <c r="A132" s="29"/>
       <c r="B132" s="29"/>
       <c r="C132" s="29"/>
@@ -8448,7 +8448,7 @@
       <c r="E132" s="30"/>
       <c r="F132" s="31"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" hidden="1" spans="1:6">
       <c r="A133" s="29"/>
       <c r="B133" s="29"/>
       <c r="C133" s="29"/>
@@ -8458,7 +8458,7 @@
       <c r="E133" s="30"/>
       <c r="F133" s="31"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" hidden="1" spans="1:6">
       <c r="A134" s="29" t="s">
         <v>86</v>
       </c>
@@ -8474,7 +8474,7 @@
       <c r="E134" s="30"/>
       <c r="F134" s="31"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" hidden="1" spans="1:6">
       <c r="A135" s="29"/>
       <c r="B135" s="29"/>
       <c r="C135" s="29"/>
@@ -8484,7 +8484,7 @@
       <c r="E135" s="30"/>
       <c r="F135" s="31"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" hidden="1" spans="1:6">
       <c r="A136" s="29"/>
       <c r="B136" s="29"/>
       <c r="C136" s="29"/>
@@ -8494,7 +8494,7 @@
       <c r="E136" s="30"/>
       <c r="F136" s="31"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" hidden="1" spans="1:6">
       <c r="A137" s="29"/>
       <c r="B137" s="29"/>
       <c r="C137" s="29"/>
@@ -8504,7 +8504,7 @@
       <c r="E137" s="30"/>
       <c r="F137" s="31"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" hidden="1" spans="1:6">
       <c r="A138" s="29"/>
       <c r="B138" s="29"/>
       <c r="C138" s="29"/>
@@ -8514,7 +8514,7 @@
       <c r="E138" s="30"/>
       <c r="F138" s="31"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" hidden="1" spans="1:6">
       <c r="A139" s="29" t="s">
         <v>87</v>
       </c>
@@ -8530,7 +8530,7 @@
       <c r="E139" s="30"/>
       <c r="F139" s="31"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" hidden="1" spans="1:6">
       <c r="A140" s="29"/>
       <c r="B140" s="29"/>
       <c r="C140" s="29"/>
@@ -8540,7 +8540,7 @@
       <c r="E140" s="30"/>
       <c r="F140" s="31"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" hidden="1" spans="1:6">
       <c r="A141" s="29"/>
       <c r="B141" s="29"/>
       <c r="C141" s="29"/>
@@ -8550,7 +8550,7 @@
       <c r="E141" s="30"/>
       <c r="F141" s="31"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" hidden="1" spans="1:6">
       <c r="A142" s="29" t="s">
         <v>88</v>
       </c>
@@ -8566,7 +8566,7 @@
       <c r="E142" s="30"/>
       <c r="F142" s="31"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" hidden="1" spans="1:6">
       <c r="A143" s="29"/>
       <c r="B143" s="29"/>
       <c r="C143" s="29"/>
@@ -8576,7 +8576,7 @@
       <c r="E143" s="30"/>
       <c r="F143" s="31"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" hidden="1" spans="1:6">
       <c r="A144" s="29"/>
       <c r="B144" s="29"/>
       <c r="C144" s="29"/>
@@ -8586,7 +8586,7 @@
       <c r="E144" s="30"/>
       <c r="F144" s="31"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" hidden="1" spans="1:6">
       <c r="A145" s="29" t="s">
         <v>89</v>
       </c>
@@ -8602,7 +8602,7 @@
       <c r="E145" s="30"/>
       <c r="F145" s="31"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" hidden="1" spans="1:6">
       <c r="A146" s="29" t="s">
         <v>91</v>
       </c>
@@ -8618,7 +8618,7 @@
       <c r="E146" s="30"/>
       <c r="F146" s="31"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" hidden="1" spans="1:6">
       <c r="A147" s="29" t="s">
         <v>92</v>
       </c>
@@ -8634,7 +8634,7 @@
       <c r="E147" s="30"/>
       <c r="F147" s="31"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" hidden="1" spans="1:6">
       <c r="A148" s="29" t="s">
         <v>93</v>
       </c>
@@ -8650,7 +8650,7 @@
       <c r="E148" s="30"/>
       <c r="F148" s="31"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" hidden="1" spans="1:6">
       <c r="A149" s="29" t="s">
         <v>94</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="E149" s="30"/>
       <c r="F149" s="31"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" hidden="1" spans="1:6">
       <c r="A150" s="29" t="s">
         <v>95</v>
       </c>
@@ -8682,7 +8682,7 @@
       <c r="E150" s="30"/>
       <c r="F150" s="31"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" hidden="1" spans="1:6">
       <c r="A151" s="29" t="s">
         <v>96</v>
       </c>
@@ -8698,7 +8698,7 @@
       <c r="E151" s="30"/>
       <c r="F151" s="31"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" hidden="1" spans="1:6">
       <c r="A152" s="29" t="s">
         <v>97</v>
       </c>
@@ -8714,7 +8714,7 @@
       <c r="E152" s="30"/>
       <c r="F152" s="31"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" hidden="1" spans="1:6">
       <c r="A153" s="29" t="s">
         <v>98</v>
       </c>
@@ -8730,7 +8730,7 @@
       <c r="E153" s="30"/>
       <c r="F153" s="31"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" hidden="1" spans="1:6">
       <c r="A154" s="29" t="s">
         <v>99</v>
       </c>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="F154" s="31"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" hidden="1" spans="1:6">
       <c r="A155" s="29" t="s">
         <v>101</v>
       </c>
@@ -8764,7 +8764,7 @@
       <c r="E155" s="30"/>
       <c r="F155" s="31"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" hidden="1" spans="1:6">
       <c r="A156" s="29" t="s">
         <v>102</v>
       </c>
@@ -8780,7 +8780,7 @@
       <c r="E156" s="30"/>
       <c r="F156" s="31"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" hidden="1" spans="1:6">
       <c r="A157" s="29" t="s">
         <v>103</v>
       </c>
@@ -8796,7 +8796,7 @@
       <c r="E157" s="30"/>
       <c r="F157" s="31"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" hidden="1" spans="1:6">
       <c r="A158" s="29" t="s">
         <v>104</v>
       </c>
@@ -8812,7 +8812,7 @@
       <c r="E158" s="30"/>
       <c r="F158" s="31"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" hidden="1" spans="1:6">
       <c r="A159" s="29" t="s">
         <v>105</v>
       </c>
@@ -8828,7 +8828,7 @@
       <c r="E159" s="30"/>
       <c r="F159" s="31"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" hidden="1" spans="1:6">
       <c r="A160" s="29" t="s">
         <v>106</v>
       </c>
@@ -8844,7 +8844,7 @@
       <c r="E160" s="30"/>
       <c r="F160" s="31"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" hidden="1" spans="1:6">
       <c r="A161" s="29" t="s">
         <v>107</v>
       </c>
@@ -8860,7 +8860,7 @@
       <c r="E161" s="30"/>
       <c r="F161" s="31"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" hidden="1" spans="1:6">
       <c r="A162" s="29" t="s">
         <v>108</v>
       </c>
@@ -8876,7 +8876,7 @@
       <c r="E162" s="30"/>
       <c r="F162" s="31"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" hidden="1" spans="1:6">
       <c r="A163" s="29" t="s">
         <v>109</v>
       </c>
@@ -8892,7 +8892,7 @@
       <c r="E163" s="30"/>
       <c r="F163" s="31"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" hidden="1" spans="1:6">
       <c r="A164" s="29" t="s">
         <v>110</v>
       </c>
@@ -8908,7 +8908,7 @@
       <c r="E164" s="30"/>
       <c r="F164" s="31"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" hidden="1" spans="1:6">
       <c r="A165" s="29" t="s">
         <v>111</v>
       </c>
@@ -8924,7 +8924,7 @@
       <c r="E165" s="30"/>
       <c r="F165" s="31"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" hidden="1" spans="1:6">
       <c r="A166" s="29" t="s">
         <v>112</v>
       </c>
@@ -8940,7 +8940,7 @@
       <c r="E166" s="30"/>
       <c r="F166" s="31"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" hidden="1" spans="1:6">
       <c r="A167" s="29" t="s">
         <v>113</v>
       </c>
@@ -8956,7 +8956,7 @@
       <c r="E167" s="30"/>
       <c r="F167" s="31"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" hidden="1" spans="1:6">
       <c r="A168" s="29" t="s">
         <v>114</v>
       </c>
@@ -8972,7 +8972,7 @@
       <c r="E168" s="30"/>
       <c r="F168" s="31"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" hidden="1" spans="1:6">
       <c r="A169" s="29" t="s">
         <v>115</v>
       </c>
@@ -8988,7 +8988,7 @@
       <c r="E169" s="30"/>
       <c r="F169" s="31"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" hidden="1" spans="1:6">
       <c r="A170" s="29" t="s">
         <v>116</v>
       </c>
@@ -9004,7 +9004,7 @@
       <c r="E170" s="30"/>
       <c r="F170" s="31"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" hidden="1" spans="1:6">
       <c r="A171" s="29" t="s">
         <v>117</v>
       </c>
@@ -9020,7 +9020,7 @@
       <c r="E171" s="30"/>
       <c r="F171" s="31"/>
     </row>
-    <row r="172" ht="18" spans="1:6">
+    <row r="172" ht="18" hidden="1" spans="1:6">
       <c r="A172" s="29" t="s">
         <v>118</v>
       </c>
@@ -9036,7 +9036,7 @@
       <c r="E172" s="30"/>
       <c r="F172" s="31"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" hidden="1" spans="1:6">
       <c r="A173" s="29" t="s">
         <v>120</v>
       </c>
@@ -9052,7 +9052,7 @@
       <c r="E173" s="30"/>
       <c r="F173" s="31"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" hidden="1" spans="1:6">
       <c r="A174" s="29" t="s">
         <v>121</v>
       </c>
@@ -9068,7 +9068,7 @@
       <c r="E174" s="30"/>
       <c r="F174" s="31"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" hidden="1" spans="1:6">
       <c r="A175" s="29" t="s">
         <v>122</v>
       </c>
@@ -9084,7 +9084,7 @@
       <c r="E175" s="30"/>
       <c r="F175" s="31"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" hidden="1" spans="1:6">
       <c r="A176" s="29" t="s">
         <v>123</v>
       </c>
@@ -9100,7 +9100,7 @@
       <c r="E176" s="30"/>
       <c r="F176" s="31"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" hidden="1" spans="1:6">
       <c r="A177" s="29" t="s">
         <v>124</v>
       </c>
@@ -9116,7 +9116,7 @@
       <c r="E177" s="30"/>
       <c r="F177" s="31"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" hidden="1" spans="1:6">
       <c r="A178" s="29" t="s">
         <v>125</v>
       </c>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="F178" s="31"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" hidden="1" spans="1:6">
       <c r="A179" s="30"/>
       <c r="B179" s="30"/>
       <c r="C179" s="30"/>
@@ -9142,7 +9142,7 @@
       <c r="E179" s="30"/>
       <c r="F179" s="31"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" hidden="1" spans="1:6">
       <c r="A180" s="29" t="s">
         <v>127</v>
       </c>
@@ -9158,7 +9158,7 @@
       <c r="E180" s="30"/>
       <c r="F180" s="31"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" hidden="1" spans="1:6">
       <c r="A181" s="29" t="s">
         <v>129</v>
       </c>
@@ -9174,7 +9174,7 @@
       <c r="E181" s="30"/>
       <c r="F181" s="31"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" hidden="1" spans="1:6">
       <c r="A182" s="29" t="s">
         <v>130</v>
       </c>
@@ -9190,7 +9190,7 @@
       <c r="E182" s="30"/>
       <c r="F182" s="31"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" hidden="1" spans="1:6">
       <c r="A183" s="29" t="s">
         <v>131</v>
       </c>
@@ -9206,7 +9206,7 @@
       <c r="E183" s="30"/>
       <c r="F183" s="31"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" hidden="1" spans="1:6">
       <c r="A184" s="29" t="s">
         <v>132</v>
       </c>
@@ -9222,7 +9222,7 @@
       <c r="E184" s="30"/>
       <c r="F184" s="31"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" hidden="1" spans="1:6">
       <c r="A185" s="29" t="s">
         <v>133</v>
       </c>
@@ -9238,7 +9238,7 @@
       <c r="E185" s="30"/>
       <c r="F185" s="31"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" hidden="1" spans="1:6">
       <c r="A186" s="29" t="s">
         <v>134</v>
       </c>
@@ -9254,7 +9254,7 @@
       <c r="E186" s="30"/>
       <c r="F186" s="31"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" hidden="1" spans="1:6">
       <c r="A187" s="29" t="s">
         <v>135</v>
       </c>
@@ -9270,7 +9270,7 @@
       <c r="E187" s="30"/>
       <c r="F187" s="31"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" hidden="1" spans="1:6">
       <c r="A188" s="29" t="s">
         <v>136</v>
       </c>
@@ -9286,7 +9286,7 @@
       <c r="E188" s="30"/>
       <c r="F188" s="31"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" hidden="1" spans="1:6">
       <c r="A189" s="29" t="s">
         <v>137</v>
       </c>
@@ -9302,7 +9302,7 @@
       <c r="E189" s="30"/>
       <c r="F189" s="31"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" hidden="1" spans="1:6">
       <c r="A190" s="29" t="s">
         <v>138</v>
       </c>
@@ -9318,7 +9318,7 @@
       <c r="E190" s="30"/>
       <c r="F190" s="31"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" hidden="1" spans="1:6">
       <c r="A191" s="29" t="s">
         <v>139</v>
       </c>
@@ -9334,7 +9334,7 @@
       <c r="E191" s="30"/>
       <c r="F191" s="31"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" hidden="1" spans="1:6">
       <c r="A192" s="29" t="s">
         <v>140</v>
       </c>
@@ -9350,7 +9350,7 @@
       <c r="E192" s="30"/>
       <c r="F192" s="31"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" hidden="1" spans="1:6">
       <c r="A193" s="29" t="s">
         <v>141</v>
       </c>
@@ -9366,7 +9366,7 @@
       <c r="E193" s="30"/>
       <c r="F193" s="31"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" hidden="1" spans="1:6">
       <c r="A194" s="29" t="s">
         <v>142</v>
       </c>
@@ -9382,7 +9382,7 @@
       <c r="E194" s="30"/>
       <c r="F194" s="31"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" hidden="1" spans="1:6">
       <c r="A195" s="29" t="s">
         <v>143</v>
       </c>
@@ -9398,7 +9398,7 @@
       <c r="E195" s="30"/>
       <c r="F195" s="31"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" hidden="1" spans="1:6">
       <c r="A196" s="29" t="s">
         <v>144</v>
       </c>
@@ -9414,7 +9414,7 @@
       <c r="E196" s="30"/>
       <c r="F196" s="31"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" hidden="1" spans="1:6">
       <c r="A197" s="29" t="s">
         <v>145</v>
       </c>
@@ -9430,7 +9430,7 @@
       <c r="E197" s="30"/>
       <c r="F197" s="31"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" hidden="1" spans="1:6">
       <c r="A198" s="29" t="s">
         <v>146</v>
       </c>
@@ -9446,7 +9446,7 @@
       <c r="E198" s="30"/>
       <c r="F198" s="31"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" hidden="1" spans="1:6">
       <c r="A199" s="29" t="s">
         <v>148</v>
       </c>
@@ -9462,7 +9462,7 @@
       <c r="E199" s="30"/>
       <c r="F199" s="31"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" hidden="1" spans="1:6">
       <c r="A200" s="29" t="s">
         <v>149</v>
       </c>
@@ -9478,7 +9478,7 @@
       <c r="E200" s="30"/>
       <c r="F200" s="31"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" hidden="1" spans="1:6">
       <c r="A201" s="29" t="s">
         <v>150</v>
       </c>
@@ -9494,7 +9494,7 @@
       <c r="E201" s="30"/>
       <c r="F201" s="31"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" hidden="1" spans="1:6">
       <c r="A202" s="29" t="s">
         <v>151</v>
       </c>
@@ -9510,7 +9510,7 @@
       <c r="E202" s="30"/>
       <c r="F202" s="31"/>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" hidden="1" spans="1:6">
       <c r="A203" s="29" t="s">
         <v>152</v>
       </c>
@@ -9526,7 +9526,7 @@
       <c r="E203" s="30"/>
       <c r="F203" s="31"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" hidden="1" spans="1:6">
       <c r="A204" s="29" t="s">
         <v>153</v>
       </c>
@@ -9544,7 +9544,7 @@
       </c>
       <c r="F204" s="31"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" hidden="1" spans="1:6">
       <c r="A205" s="29" t="s">
         <v>155</v>
       </c>
@@ -9560,7 +9560,7 @@
       <c r="E205" s="30"/>
       <c r="F205" s="31"/>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" hidden="1" spans="1:6">
       <c r="A206" s="29" t="s">
         <v>156</v>
       </c>
@@ -9576,7 +9576,7 @@
       <c r="E206" s="30"/>
       <c r="F206" s="31"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" hidden="1" spans="1:6">
       <c r="A207" s="29" t="s">
         <v>157</v>
       </c>
@@ -9592,7 +9592,7 @@
       <c r="E207" s="30"/>
       <c r="F207" s="31"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" hidden="1" spans="1:6">
       <c r="A208" s="29" t="s">
         <v>158</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="E208" s="30"/>
       <c r="F208" s="31"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" hidden="1" spans="1:6">
       <c r="A209" s="29" t="s">
         <v>159</v>
       </c>
@@ -9624,7 +9624,7 @@
       <c r="E209" s="30"/>
       <c r="F209" s="31"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" hidden="1" spans="1:6">
       <c r="A210" s="29" t="s">
         <v>160</v>
       </c>
@@ -9640,7 +9640,7 @@
       <c r="E210" s="30"/>
       <c r="F210" s="31"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" hidden="1" spans="1:6">
       <c r="A211" s="29" t="s">
         <v>161</v>
       </c>
@@ -9656,7 +9656,7 @@
       <c r="E211" s="30"/>
       <c r="F211" s="31"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" hidden="1" spans="1:6">
       <c r="A212" s="29" t="s">
         <v>162</v>
       </c>
@@ -9672,7 +9672,7 @@
       <c r="E212" s="30"/>
       <c r="F212" s="31"/>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" hidden="1" spans="1:6">
       <c r="A213" s="29" t="s">
         <v>163</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="E213" s="30"/>
       <c r="F213" s="31"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" hidden="1" spans="1:6">
       <c r="A214" s="29" t="s">
         <v>164</v>
       </c>
@@ -9704,7 +9704,7 @@
       <c r="E214" s="30"/>
       <c r="F214" s="31"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" hidden="1" spans="1:6">
       <c r="A215" s="29" t="s">
         <v>165</v>
       </c>
@@ -9720,7 +9720,7 @@
       <c r="E215" s="30"/>
       <c r="F215" s="31"/>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" hidden="1" spans="1:6">
       <c r="A216" s="29" t="s">
         <v>166</v>
       </c>
@@ -9736,7 +9736,7 @@
       <c r="E216" s="30"/>
       <c r="F216" s="31"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" hidden="1" spans="1:6">
       <c r="A217" s="29" t="s">
         <v>167</v>
       </c>
@@ -9752,7 +9752,7 @@
       <c r="E217" s="30"/>
       <c r="F217" s="31"/>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" hidden="1" spans="1:6">
       <c r="A218" s="29" t="s">
         <v>168</v>
       </c>
@@ -9768,7 +9768,7 @@
       <c r="E218" s="30"/>
       <c r="F218" s="31"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" hidden="1" spans="1:6">
       <c r="A219" s="29" t="s">
         <v>169</v>
       </c>
@@ -9784,7 +9784,7 @@
       <c r="E219" s="30"/>
       <c r="F219" s="31"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" hidden="1" spans="1:6">
       <c r="A220" s="29" t="s">
         <v>170</v>
       </c>
@@ -9800,7 +9800,7 @@
       <c r="E220" s="30"/>
       <c r="F220" s="31"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" hidden="1" spans="1:6">
       <c r="A221" s="29" t="s">
         <v>171</v>
       </c>
@@ -9816,7 +9816,7 @@
       <c r="E221" s="30"/>
       <c r="F221" s="31"/>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" hidden="1" spans="1:6">
       <c r="A222" s="29" t="s">
         <v>174</v>
       </c>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="F222" s="31"/>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" hidden="1" spans="1:6">
       <c r="A223" s="29" t="s">
         <v>176</v>
       </c>
@@ -9850,7 +9850,7 @@
       <c r="E223" s="30"/>
       <c r="F223" s="31"/>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" hidden="1" spans="1:6">
       <c r="A224" s="29" t="s">
         <v>177</v>
       </c>
@@ -9866,7 +9866,7 @@
       <c r="E224" s="30"/>
       <c r="F224" s="31"/>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" hidden="1" spans="1:6">
       <c r="A225" s="29"/>
       <c r="B225" s="29"/>
       <c r="C225" s="29"/>
@@ -9876,7 +9876,7 @@
       <c r="E225" s="30"/>
       <c r="F225" s="31"/>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" hidden="1" spans="1:6">
       <c r="A226" s="29"/>
       <c r="B226" s="29"/>
       <c r="C226" s="29"/>
@@ -9886,7 +9886,7 @@
       <c r="E226" s="30"/>
       <c r="F226" s="31"/>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" hidden="1" spans="1:6">
       <c r="A227" s="29"/>
       <c r="B227" s="29"/>
       <c r="C227" s="29"/>
@@ -9896,7 +9896,7 @@
       <c r="E227" s="30"/>
       <c r="F227" s="31"/>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" hidden="1" spans="1:6">
       <c r="A228" s="29"/>
       <c r="B228" s="29"/>
       <c r="C228" s="29"/>
@@ -9906,7 +9906,7 @@
       <c r="E228" s="30"/>
       <c r="F228" s="31"/>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" hidden="1" spans="1:6">
       <c r="A229" s="29" t="s">
         <v>183</v>
       </c>
@@ -9922,7 +9922,7 @@
       <c r="E229" s="30"/>
       <c r="F229" s="31"/>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" hidden="1" spans="1:6">
       <c r="A230" s="29" t="s">
         <v>185</v>
       </c>
@@ -9938,7 +9938,7 @@
       <c r="E230" s="30"/>
       <c r="F230" s="31"/>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" hidden="1" spans="1:6">
       <c r="A231" s="29" t="s">
         <v>187</v>
       </c>
@@ -9954,7 +9954,7 @@
       <c r="E231" s="30"/>
       <c r="F231" s="31"/>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" hidden="1" spans="1:6">
       <c r="A232" s="29" t="s">
         <v>189</v>
       </c>
@@ -9970,7 +9970,7 @@
       <c r="E232" s="30"/>
       <c r="F232" s="31"/>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" hidden="1" spans="1:6">
       <c r="A233" s="29" t="s">
         <v>191</v>
       </c>
@@ -9984,7 +9984,7 @@
       <c r="E233" s="30"/>
       <c r="F233" s="31"/>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" hidden="1" spans="1:6">
       <c r="A234" s="29" t="s">
         <v>192</v>
       </c>
@@ -9998,7 +9998,7 @@
       <c r="E234" s="30"/>
       <c r="F234" s="31"/>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" hidden="1" spans="1:6">
       <c r="A235" s="29" t="s">
         <v>193</v>
       </c>
@@ -10012,7 +10012,7 @@
       <c r="E235" s="30"/>
       <c r="F235" s="31"/>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" hidden="1" spans="1:6">
       <c r="A236" s="29" t="s">
         <v>194</v>
       </c>
@@ -10026,7 +10026,7 @@
       <c r="E236" s="30"/>
       <c r="F236" s="31"/>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" hidden="1" spans="1:6">
       <c r="A237" s="29" t="s">
         <v>195</v>
       </c>
@@ -10040,7 +10040,7 @@
       <c r="E237" s="30"/>
       <c r="F237" s="31"/>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" hidden="1" spans="1:6">
       <c r="A238" s="29" t="s">
         <v>196</v>
       </c>
@@ -10054,7 +10054,7 @@
       <c r="E238" s="30"/>
       <c r="F238" s="31"/>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" hidden="1" spans="1:6">
       <c r="A239" s="29" t="s">
         <v>197</v>
       </c>
@@ -10068,7 +10068,7 @@
       <c r="E239" s="30"/>
       <c r="F239" s="31"/>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" hidden="1" spans="1:6">
       <c r="A240" s="29" t="s">
         <v>198</v>
       </c>
@@ -10082,7 +10082,7 @@
       <c r="E240" s="30"/>
       <c r="F240" s="31"/>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" hidden="1" spans="1:6">
       <c r="A241" s="29" t="s">
         <v>199</v>
       </c>
@@ -10096,7 +10096,7 @@
       <c r="E241" s="30"/>
       <c r="F241" s="31"/>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" hidden="1" spans="1:6">
       <c r="A242" s="29" t="s">
         <v>200</v>
       </c>
@@ -10110,7 +10110,7 @@
       <c r="E242" s="30"/>
       <c r="F242" s="31"/>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" hidden="1" spans="1:6">
       <c r="A243" s="29" t="s">
         <v>201</v>
       </c>
@@ -10124,7 +10124,7 @@
       <c r="E243" s="30"/>
       <c r="F243" s="31"/>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" hidden="1" spans="1:6">
       <c r="A244" s="29" t="s">
         <v>202</v>
       </c>
@@ -10138,7 +10138,7 @@
       <c r="E244" s="30"/>
       <c r="F244" s="31"/>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" hidden="1" spans="1:6">
       <c r="A245" s="29" t="s">
         <v>203</v>
       </c>
@@ -10152,7 +10152,7 @@
       <c r="E245" s="30"/>
       <c r="F245" s="31"/>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" hidden="1" spans="1:6">
       <c r="A246" s="29" t="s">
         <v>204</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="E246" s="30"/>
       <c r="F246" s="31"/>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" hidden="1" spans="1:6">
       <c r="A247" s="29" t="s">
         <v>205</v>
       </c>
@@ -10180,7 +10180,7 @@
       <c r="E247" s="30"/>
       <c r="F247" s="31"/>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" hidden="1" spans="1:6">
       <c r="A248" s="29" t="s">
         <v>206</v>
       </c>
@@ -10194,7 +10194,7 @@
       <c r="E248" s="30"/>
       <c r="F248" s="31"/>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" hidden="1" spans="1:6">
       <c r="A249" s="29" t="s">
         <v>207</v>
       </c>
@@ -10208,7 +10208,7 @@
       <c r="E249" s="30"/>
       <c r="F249" s="31"/>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" hidden="1" spans="1:6">
       <c r="A250" s="29" t="s">
         <v>208</v>
       </c>
@@ -10222,7 +10222,7 @@
       <c r="E250" s="30"/>
       <c r="F250" s="31"/>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" hidden="1" spans="1:6">
       <c r="A251" s="29" t="s">
         <v>209</v>
       </c>
@@ -10236,7 +10236,7 @@
       <c r="E251" s="30"/>
       <c r="F251" s="31"/>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" hidden="1" spans="1:6">
       <c r="A252" s="29" t="s">
         <v>210</v>
       </c>
@@ -10250,7 +10250,7 @@
       <c r="E252" s="30"/>
       <c r="F252" s="31"/>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" hidden="1" spans="1:6">
       <c r="A253" s="29" t="s">
         <v>211</v>
       </c>
@@ -10264,7 +10264,7 @@
       <c r="E253" s="30"/>
       <c r="F253" s="31"/>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" hidden="1" spans="1:6">
       <c r="A254" s="29" t="s">
         <v>212</v>
       </c>
@@ -10278,7 +10278,7 @@
       <c r="E254" s="30"/>
       <c r="F254" s="31"/>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" hidden="1" spans="1:6">
       <c r="A255" s="29" t="s">
         <v>213</v>
       </c>
@@ -10292,7 +10292,7 @@
       <c r="E255" s="30"/>
       <c r="F255" s="31"/>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" hidden="1" spans="1:6">
       <c r="A256" s="29" t="s">
         <v>214</v>
       </c>
@@ -10306,7 +10306,7 @@
       <c r="E256" s="30"/>
       <c r="F256" s="31"/>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" hidden="1" spans="1:6">
       <c r="A257" s="29" t="s">
         <v>215</v>
       </c>
@@ -10320,7 +10320,7 @@
       <c r="E257" s="30"/>
       <c r="F257" s="31"/>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" hidden="1" spans="1:6">
       <c r="A258" s="29" t="s">
         <v>216</v>
       </c>
@@ -10334,7 +10334,7 @@
       <c r="E258" s="30"/>
       <c r="F258" s="31"/>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" hidden="1" spans="1:6">
       <c r="A259" s="29" t="s">
         <v>217</v>
       </c>
@@ -10348,7 +10348,7 @@
       <c r="E259" s="30"/>
       <c r="F259" s="31"/>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" hidden="1" spans="1:6">
       <c r="A260" s="29" t="s">
         <v>218</v>
       </c>
@@ -10362,7 +10362,7 @@
       <c r="E260" s="30"/>
       <c r="F260" s="31"/>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" hidden="1" spans="1:6">
       <c r="A261" s="29" t="s">
         <v>219</v>
       </c>
@@ -10376,7 +10376,7 @@
       <c r="E261" s="30"/>
       <c r="F261" s="31"/>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" hidden="1" spans="1:6">
       <c r="A262" s="29" t="s">
         <v>220</v>
       </c>
@@ -10390,7 +10390,7 @@
       <c r="E262" s="30"/>
       <c r="F262" s="31"/>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" hidden="1" spans="1:6">
       <c r="A263" s="29" t="s">
         <v>221</v>
       </c>
@@ -10404,7 +10404,7 @@
       <c r="E263" s="30"/>
       <c r="F263" s="31"/>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" hidden="1" spans="1:6">
       <c r="A264" s="29" t="s">
         <v>222</v>
       </c>
@@ -10418,7 +10418,7 @@
       <c r="E264" s="30"/>
       <c r="F264" s="31"/>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" hidden="1" spans="1:6">
       <c r="A265" s="29" t="s">
         <v>223</v>
       </c>
@@ -10432,7 +10432,7 @@
       <c r="E265" s="30"/>
       <c r="F265" s="31"/>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" hidden="1" spans="1:6">
       <c r="A266" s="29" t="s">
         <v>224</v>
       </c>
@@ -10446,7 +10446,7 @@
       <c r="E266" s="30"/>
       <c r="F266" s="31"/>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" hidden="1" spans="1:6">
       <c r="A267" s="29" t="s">
         <v>225</v>
       </c>
@@ -10460,7 +10460,7 @@
       <c r="E267" s="30"/>
       <c r="F267" s="31"/>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" hidden="1" spans="1:6">
       <c r="A268" s="29" t="s">
         <v>226</v>
       </c>
@@ -10474,7 +10474,7 @@
       <c r="E268" s="30"/>
       <c r="F268" s="31"/>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" hidden="1" spans="1:6">
       <c r="A269" s="29" t="s">
         <v>227</v>
       </c>
@@ -10488,7 +10488,7 @@
       <c r="E269" s="30"/>
       <c r="F269" s="31"/>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" hidden="1" spans="1:6">
       <c r="A270" s="29" t="s">
         <v>228</v>
       </c>
@@ -10502,7 +10502,7 @@
       <c r="E270" s="30"/>
       <c r="F270" s="31"/>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" hidden="1" spans="1:6">
       <c r="A271" s="29" t="s">
         <v>229</v>
       </c>
@@ -10516,7 +10516,7 @@
       <c r="E271" s="30"/>
       <c r="F271" s="31"/>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" hidden="1" spans="1:6">
       <c r="A272" s="29" t="s">
         <v>230</v>
       </c>
@@ -10530,7 +10530,7 @@
       <c r="E272" s="30"/>
       <c r="F272" s="31"/>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" hidden="1" spans="1:6">
       <c r="A273" s="29" t="s">
         <v>231</v>
       </c>
@@ -10544,7 +10544,7 @@
       <c r="E273" s="30"/>
       <c r="F273" s="31"/>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" hidden="1" spans="1:6">
       <c r="A274" s="29" t="s">
         <v>232</v>
       </c>
@@ -10558,7 +10558,7 @@
       <c r="E274" s="30"/>
       <c r="F274" s="31"/>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" hidden="1" spans="1:6">
       <c r="A275" s="29" t="s">
         <v>233</v>
       </c>
@@ -10572,7 +10572,7 @@
       <c r="E275" s="30"/>
       <c r="F275" s="31"/>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" hidden="1" spans="1:6">
       <c r="A276" s="29" t="s">
         <v>234</v>
       </c>
@@ -10586,7 +10586,7 @@
       <c r="E276" s="30"/>
       <c r="F276" s="31"/>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" hidden="1" spans="1:6">
       <c r="A277" s="29" t="s">
         <v>235</v>
       </c>
@@ -10600,7 +10600,7 @@
       <c r="E277" s="30"/>
       <c r="F277" s="31"/>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" hidden="1" spans="1:6">
       <c r="A278" s="29" t="s">
         <v>236</v>
       </c>
@@ -10614,7 +10614,7 @@
       <c r="E278" s="30"/>
       <c r="F278" s="31"/>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" hidden="1" spans="1:6">
       <c r="A279" s="29" t="s">
         <v>237</v>
       </c>
@@ -10630,7 +10630,7 @@
       <c r="E279" s="30"/>
       <c r="F279" s="31"/>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" hidden="1" spans="1:6">
       <c r="A280" s="29" t="s">
         <v>239</v>
       </c>
@@ -10648,7 +10648,7 @@
       </c>
       <c r="F280" s="31"/>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" hidden="1" spans="1:6">
       <c r="A281" s="29"/>
       <c r="B281" s="30"/>
       <c r="C281" s="29"/>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="F281" s="31"/>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" hidden="1" spans="1:6">
       <c r="A282" s="29"/>
       <c r="B282" s="30"/>
       <c r="C282" s="29"/>
@@ -10672,7 +10672,7 @@
       </c>
       <c r="F282" s="31"/>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" hidden="1" spans="1:6">
       <c r="A283" s="29"/>
       <c r="B283" s="30"/>
       <c r="C283" s="29"/>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="F283" s="31"/>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" hidden="1" spans="1:6">
       <c r="A284" s="29" t="s">
         <v>249</v>
       </c>
@@ -10700,7 +10700,7 @@
       <c r="E284" s="30"/>
       <c r="F284" s="31"/>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" hidden="1" spans="1:6">
       <c r="A285" s="29" t="s">
         <v>250</v>
       </c>
@@ -10716,7 +10716,7 @@
       <c r="E285" s="30"/>
       <c r="F285" s="31"/>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" hidden="1" spans="1:6">
       <c r="A286" s="29"/>
       <c r="B286" s="30"/>
       <c r="C286" s="29"/>
@@ -10726,7 +10726,7 @@
       <c r="E286" s="30"/>
       <c r="F286" s="31"/>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" hidden="1" spans="1:6">
       <c r="A287" s="29"/>
       <c r="B287" s="30"/>
       <c r="C287" s="29"/>
@@ -10736,7 +10736,7 @@
       <c r="E287" s="30"/>
       <c r="F287" s="31"/>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" hidden="1" spans="1:6">
       <c r="A288" s="29"/>
       <c r="B288" s="30"/>
       <c r="C288" s="29"/>
@@ -10746,7 +10746,7 @@
       <c r="E288" s="30"/>
       <c r="F288" s="31"/>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" hidden="1" spans="1:6">
       <c r="A289" s="29" t="s">
         <v>256</v>
       </c>
@@ -10762,7 +10762,7 @@
       <c r="E289" s="30"/>
       <c r="F289" s="31"/>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" hidden="1" spans="1:6">
       <c r="A290" s="29" t="s">
         <v>257</v>
       </c>
@@ -10778,7 +10778,7 @@
       <c r="E290" s="30"/>
       <c r="F290" s="31"/>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" hidden="1" spans="1:6">
       <c r="A291" s="29"/>
       <c r="B291" s="30"/>
       <c r="C291" s="29"/>
@@ -10788,7 +10788,7 @@
       <c r="E291" s="30"/>
       <c r="F291" s="31"/>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" hidden="1" spans="1:6">
       <c r="A292" s="29"/>
       <c r="B292" s="30"/>
       <c r="C292" s="29"/>
@@ -10798,7 +10798,7 @@
       <c r="E292" s="30"/>
       <c r="F292" s="31"/>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" hidden="1" spans="1:6">
       <c r="A293" s="29"/>
       <c r="B293" s="30"/>
       <c r="C293" s="29"/>
@@ -10824,7 +10824,7 @@
       <c r="E294" s="30"/>
       <c r="F294" s="31"/>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" hidden="1" spans="1:6">
       <c r="A295" s="29" t="s">
         <v>262</v>
       </c>
@@ -10842,7 +10842,7 @@
       </c>
       <c r="F295" s="31"/>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" hidden="1" spans="1:6">
       <c r="A296" s="29"/>
       <c r="B296" s="30"/>
       <c r="C296" s="29"/>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="F296" s="31"/>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" hidden="1" spans="1:6">
       <c r="A297" s="29"/>
       <c r="B297" s="30"/>
       <c r="C297" s="29"/>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="F297" s="31"/>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" hidden="1" spans="1:6">
       <c r="A298" s="29"/>
       <c r="B298" s="30"/>
       <c r="C298" s="29"/>
@@ -10874,7 +10874,7 @@
       </c>
       <c r="F298" s="31"/>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" hidden="1" spans="1:6">
       <c r="A299" s="29"/>
       <c r="B299" s="30"/>
       <c r="C299" s="29"/>
@@ -10884,7 +10884,7 @@
       <c r="E299" s="30"/>
       <c r="F299" s="31"/>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" hidden="1" spans="1:6">
       <c r="A300" s="29"/>
       <c r="B300" s="30"/>
       <c r="C300" s="29"/>
@@ -10892,7 +10892,7 @@
       <c r="E300" s="30"/>
       <c r="F300" s="31"/>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" hidden="1" spans="1:6">
       <c r="A301" s="29"/>
       <c r="B301" s="30"/>
       <c r="C301" s="29"/>
@@ -10902,7 +10902,7 @@
       <c r="E301" s="30"/>
       <c r="F301" s="31"/>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" hidden="1" spans="1:6">
       <c r="A302" s="29" t="s">
         <v>265</v>
       </c>
@@ -10918,7 +10918,7 @@
       <c r="E302" s="30"/>
       <c r="F302" s="31"/>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" hidden="1" spans="1:6">
       <c r="A303" s="29" t="s">
         <v>267</v>
       </c>
@@ -10934,7 +10934,7 @@
       <c r="E303" s="30"/>
       <c r="F303" s="31"/>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" hidden="1" spans="1:6">
       <c r="A304" s="29" t="s">
         <v>269</v>
       </c>
@@ -10950,7 +10950,7 @@
       <c r="E304" s="30"/>
       <c r="F304" s="31"/>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" hidden="1" spans="1:6">
       <c r="A305" s="29" t="s">
         <v>270</v>
       </c>
@@ -10966,7 +10966,7 @@
       <c r="E305" s="30"/>
       <c r="F305" s="31"/>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" hidden="1" spans="1:6">
       <c r="A306" s="29" t="s">
         <v>271</v>
       </c>
@@ -10982,7 +10982,7 @@
       <c r="E306" s="30"/>
       <c r="F306" s="31"/>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" hidden="1" spans="1:6">
       <c r="A307" s="29" t="s">
         <v>272</v>
       </c>
@@ -10998,7 +10998,7 @@
       <c r="E307" s="30"/>
       <c r="F307" s="31"/>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" hidden="1" spans="1:6">
       <c r="A308" s="29" t="s">
         <v>273</v>
       </c>
@@ -11016,7 +11016,7 @@
       </c>
       <c r="F308" s="31"/>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" hidden="1" spans="1:6">
       <c r="A309" s="29"/>
       <c r="B309" s="29"/>
       <c r="C309" s="29"/>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="F309" s="31"/>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" hidden="1" spans="1:6">
       <c r="A310" s="29"/>
       <c r="B310" s="29"/>
       <c r="C310" s="29"/>
@@ -11040,7 +11040,7 @@
       </c>
       <c r="F310" s="31"/>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" hidden="1" spans="1:6">
       <c r="A311" s="29"/>
       <c r="B311" s="29"/>
       <c r="C311" s="29"/>
@@ -11050,7 +11050,7 @@
       <c r="E311" s="30"/>
       <c r="F311" s="31"/>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" hidden="1" spans="1:6">
       <c r="A312" s="29" t="s">
         <v>274</v>
       </c>
@@ -11066,7 +11066,7 @@
       <c r="E312" s="30"/>
       <c r="F312" s="31"/>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" hidden="1" spans="1:6">
       <c r="A313" s="29"/>
       <c r="B313" s="29"/>
       <c r="C313" s="29"/>
@@ -11076,7 +11076,7 @@
       <c r="E313" s="30"/>
       <c r="F313" s="31"/>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" hidden="1" spans="1:6">
       <c r="A314" s="29" t="s">
         <v>277</v>
       </c>
@@ -11092,7 +11092,7 @@
       <c r="E314" s="30"/>
       <c r="F314" s="31"/>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" hidden="1" spans="1:6">
       <c r="A315" s="29"/>
       <c r="B315" s="29"/>
       <c r="C315" s="29"/>
@@ -11102,7 +11102,7 @@
       <c r="E315" s="30"/>
       <c r="F315" s="31"/>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" hidden="1" spans="1:6">
       <c r="A316" s="29"/>
       <c r="B316" s="29"/>
       <c r="C316" s="29"/>
@@ -11112,7 +11112,7 @@
       <c r="E316" s="30"/>
       <c r="F316" s="31"/>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" hidden="1" spans="1:6">
       <c r="A317" s="29"/>
       <c r="B317" s="29"/>
       <c r="C317" s="29"/>
@@ -11122,7 +11122,7 @@
       <c r="E317" s="30"/>
       <c r="F317" s="31"/>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" hidden="1" spans="1:6">
       <c r="A318" s="29"/>
       <c r="B318" s="29"/>
       <c r="C318" s="29"/>
@@ -11132,7 +11132,7 @@
       <c r="E318" s="30"/>
       <c r="F318" s="31"/>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" hidden="1" spans="1:6">
       <c r="A319" s="29"/>
       <c r="B319" s="29"/>
       <c r="C319" s="29"/>
@@ -11142,7 +11142,7 @@
       <c r="E319" s="30"/>
       <c r="F319" s="31"/>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" hidden="1" spans="1:6">
       <c r="A320" s="29" t="s">
         <v>284</v>
       </c>
@@ -11158,7 +11158,7 @@
       <c r="E320" s="30"/>
       <c r="F320" s="31"/>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" hidden="1" spans="1:6">
       <c r="A321" s="29" t="s">
         <v>285</v>
       </c>
@@ -11174,7 +11174,7 @@
       <c r="E321" s="30"/>
       <c r="F321" s="31"/>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" hidden="1" spans="1:6">
       <c r="A322" s="29" t="s">
         <v>286</v>
       </c>
@@ -11192,7 +11192,7 @@
       </c>
       <c r="F322" s="31"/>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" hidden="1" spans="1:6">
       <c r="A323" s="29"/>
       <c r="B323" s="29"/>
       <c r="C323" s="29"/>
@@ -11204,7 +11204,7 @@
       </c>
       <c r="F323" s="31"/>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" hidden="1" spans="1:6">
       <c r="A324" s="29"/>
       <c r="B324" s="29"/>
       <c r="C324" s="29"/>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="F324" s="31"/>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" hidden="1" spans="1:6">
       <c r="A325" s="29"/>
       <c r="B325" s="29"/>
       <c r="C325" s="29"/>
@@ -11226,7 +11226,7 @@
       <c r="E325" s="30"/>
       <c r="F325" s="31"/>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" hidden="1" spans="1:6">
       <c r="A326" s="29" t="s">
         <v>287</v>
       </c>
@@ -11242,7 +11242,7 @@
       <c r="E326" s="30"/>
       <c r="F326" s="31"/>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" hidden="1" spans="1:6">
       <c r="A327" s="29"/>
       <c r="B327" s="29"/>
       <c r="C327" s="29"/>
@@ -11252,7 +11252,7 @@
       <c r="E327" s="30"/>
       <c r="F327" s="31"/>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" hidden="1" spans="1:6">
       <c r="A328" s="29" t="s">
         <v>288</v>
       </c>
@@ -11268,7 +11268,7 @@
       <c r="E328" s="30"/>
       <c r="F328" s="31"/>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" hidden="1" spans="1:6">
       <c r="A329" s="29"/>
       <c r="B329" s="29"/>
       <c r="C329" s="29"/>
@@ -11278,7 +11278,7 @@
       <c r="E329" s="30"/>
       <c r="F329" s="31"/>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" hidden="1" spans="1:6">
       <c r="A330" s="29"/>
       <c r="B330" s="29"/>
       <c r="C330" s="29"/>
@@ -11288,7 +11288,7 @@
       <c r="E330" s="30"/>
       <c r="F330" s="31"/>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" hidden="1" spans="1:6">
       <c r="A331" s="29"/>
       <c r="B331" s="29"/>
       <c r="C331" s="29"/>
@@ -11298,7 +11298,7 @@
       <c r="E331" s="30"/>
       <c r="F331" s="31"/>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" hidden="1" spans="1:6">
       <c r="A332" s="29"/>
       <c r="B332" s="29"/>
       <c r="C332" s="29"/>
@@ -11308,7 +11308,7 @@
       <c r="E332" s="30"/>
       <c r="F332" s="31"/>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" hidden="1" spans="1:6">
       <c r="A333" s="29"/>
       <c r="B333" s="29"/>
       <c r="C333" s="29"/>
@@ -11318,7 +11318,7 @@
       <c r="E333" s="30"/>
       <c r="F333" s="31"/>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" hidden="1" spans="1:6">
       <c r="A334" s="29" t="s">
         <v>99</v>
       </c>
@@ -11334,7 +11334,7 @@
       <c r="E334" s="30"/>
       <c r="F334" s="31"/>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" hidden="1" spans="1:6">
       <c r="A335" s="29" t="s">
         <v>292</v>
       </c>
@@ -11350,7 +11350,7 @@
       <c r="E335" s="30"/>
       <c r="F335" s="31"/>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" hidden="1" spans="1:6">
       <c r="A336" s="29" t="s">
         <v>293</v>
       </c>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="F336" s="31"/>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" hidden="1" spans="1:6">
       <c r="A337" s="29"/>
       <c r="B337" s="29"/>
       <c r="C337" s="29"/>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="F337" s="31"/>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" hidden="1" spans="1:6">
       <c r="A338" s="29"/>
       <c r="B338" s="29"/>
       <c r="C338" s="29"/>
@@ -11392,7 +11392,7 @@
       </c>
       <c r="F338" s="31"/>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" hidden="1" spans="1:6">
       <c r="A339" s="29"/>
       <c r="B339" s="29"/>
       <c r="C339" s="29"/>
@@ -11402,7 +11402,7 @@
       <c r="E339" s="30"/>
       <c r="F339" s="31"/>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" hidden="1" spans="1:6">
       <c r="A340" s="29" t="s">
         <v>177</v>
       </c>
@@ -11418,7 +11418,7 @@
       <c r="E340" s="30"/>
       <c r="F340" s="31"/>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" hidden="1" spans="1:6">
       <c r="A341" s="29" t="s">
         <v>294</v>
       </c>
@@ -11434,7 +11434,7 @@
       <c r="E341" s="30"/>
       <c r="F341" s="31"/>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" hidden="1" spans="1:6">
       <c r="A342" s="29"/>
       <c r="B342" s="29"/>
       <c r="C342" s="29"/>
@@ -11444,7 +11444,7 @@
       <c r="E342" s="30"/>
       <c r="F342" s="31"/>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" hidden="1" spans="1:6">
       <c r="A343" s="29" t="s">
         <v>297</v>
       </c>
@@ -11460,7 +11460,7 @@
       <c r="E343" s="30"/>
       <c r="F343" s="31"/>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" hidden="1" spans="1:6">
       <c r="A344" s="29" t="s">
         <v>298</v>
       </c>
@@ -11476,7 +11476,7 @@
       <c r="E344" s="30"/>
       <c r="F344" s="31"/>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" hidden="1" spans="1:6">
       <c r="A345" s="29" t="s">
         <v>299</v>
       </c>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="F345" s="31"/>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" hidden="1" spans="1:6">
       <c r="A346" s="29"/>
       <c r="B346" s="29"/>
       <c r="C346" s="29"/>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="F346" s="31"/>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" hidden="1" spans="1:6">
       <c r="A347" s="29"/>
       <c r="B347" s="29"/>
       <c r="C347" s="29"/>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="F347" s="31"/>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" hidden="1" spans="1:6">
       <c r="A348" s="29"/>
       <c r="B348" s="29"/>
       <c r="C348" s="29"/>
@@ -11528,7 +11528,7 @@
       <c r="E348" s="30"/>
       <c r="F348" s="31"/>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" hidden="1" spans="1:6">
       <c r="A349" s="29" t="s">
         <v>153</v>
       </c>
@@ -11544,7 +11544,7 @@
       <c r="E349" s="30"/>
       <c r="F349" s="31"/>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" hidden="1" spans="1:6">
       <c r="A350" s="29" t="s">
         <v>300</v>
       </c>
@@ -11560,7 +11560,7 @@
       <c r="E350" s="30"/>
       <c r="F350" s="31"/>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" hidden="1" spans="1:6">
       <c r="A351" s="29" t="s">
         <v>301</v>
       </c>
@@ -11578,7 +11578,7 @@
       </c>
       <c r="F351" s="31"/>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" hidden="1" spans="1:6">
       <c r="A352" s="29"/>
       <c r="B352" s="29"/>
       <c r="C352" s="29"/>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="F352" s="31"/>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" hidden="1" spans="1:6">
       <c r="A353" s="29"/>
       <c r="B353" s="29"/>
       <c r="C353" s="29"/>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="F353" s="31"/>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" hidden="1" spans="1:6">
       <c r="A354" s="29"/>
       <c r="B354" s="29"/>
       <c r="C354" s="29"/>
@@ -11612,7 +11612,7 @@
       <c r="E354" s="30"/>
       <c r="F354" s="31"/>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" hidden="1" spans="1:6">
       <c r="A355" s="29" t="s">
         <v>302</v>
       </c>
@@ -31998,6 +31998,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F355">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="101883"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="168">
@@ -32180,8 +32185,8 @@
   <sheetPr/>
   <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -36775,11 +36780,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E841"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C844" sqref="C844"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -36805,7 +36810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" hidden="1" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>735</v>
       </c>
@@ -36822,7 +36827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" hidden="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -36831,7 +36836,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" hidden="1" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -36840,7 +36845,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" hidden="1" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -36849,7 +36854,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" hidden="1" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -36858,7 +36863,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" hidden="1" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>736</v>
       </c>
@@ -36873,7 +36878,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" hidden="1" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -36882,7 +36887,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" hidden="1" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -36891,7 +36896,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" hidden="1" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -36900,7 +36905,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" hidden="1" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -36909,7 +36914,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" hidden="1" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>303</v>
       </c>
@@ -36926,7 +36931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" hidden="1" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -36935,7 +36940,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" hidden="1" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -36944,7 +36949,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" hidden="1" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -36953,7 +36958,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" hidden="1" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -36962,7 +36967,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" hidden="1" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>738</v>
       </c>
@@ -36977,7 +36982,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" hidden="1" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>739</v>
       </c>
@@ -36992,7 +36997,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" hidden="1" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>740</v>
       </c>
@@ -37007,7 +37012,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" hidden="1" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>741</v>
       </c>
@@ -37022,7 +37027,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" hidden="1" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -37031,7 +37036,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" hidden="1" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -37040,7 +37045,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" hidden="1" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -37049,7 +37054,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" hidden="1" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -37058,7 +37063,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" hidden="1" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -37067,7 +37072,7 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" hidden="1" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -37076,7 +37081,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" hidden="1" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>310</v>
       </c>
@@ -37091,7 +37096,7 @@
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" hidden="1" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>746</v>
       </c>
@@ -37106,7 +37111,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" hidden="1" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>747</v>
       </c>
@@ -37121,7 +37126,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>748</v>
       </c>
@@ -37136,7 +37141,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" hidden="1" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>749</v>
       </c>
@@ -37151,7 +37156,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" hidden="1" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>270</v>
       </c>
@@ -37168,7 +37173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" hidden="1" spans="1:5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -37177,7 +37182,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" hidden="1" spans="1:5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -37186,7 +37191,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" hidden="1" spans="1:5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -37195,7 +37200,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" hidden="1" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>753</v>
       </c>
@@ -37210,7 +37215,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" hidden="1" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>754</v>
       </c>
@@ -37225,7 +37230,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" hidden="1" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>755</v>
       </c>
@@ -37240,7 +37245,7 @@
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" hidden="1" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>756</v>
       </c>
@@ -37255,7 +37260,7 @@
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" hidden="1" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>757</v>
       </c>
@@ -37270,7 +37275,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" hidden="1" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>758</v>
       </c>
@@ -37285,7 +37290,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" hidden="1" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>759</v>
       </c>
@@ -37300,7 +37305,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" hidden="1" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>760</v>
       </c>
@@ -37317,7 +37322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" hidden="1" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>762</v>
       </c>
@@ -37332,7 +37337,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" hidden="1" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>763</v>
       </c>
@@ -37347,7 +37352,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" hidden="1" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>764</v>
       </c>
@@ -37362,7 +37367,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" hidden="1" spans="1:5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -37371,7 +37376,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" hidden="1" spans="1:5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -37380,7 +37385,7 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" hidden="1" spans="1:5">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -37389,7 +37394,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" hidden="1" spans="1:5">
       <c r="A50" s="2" t="s">
         <v>769</v>
       </c>
@@ -37406,7 +37411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" hidden="1" spans="1:5">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -37415,7 +37420,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" hidden="1" spans="1:5">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -37424,7 +37429,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" hidden="1" spans="1:5">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -37433,7 +37438,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" hidden="1" spans="1:5">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -37442,7 +37447,7 @@
       </c>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" hidden="1" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>771</v>
       </c>
@@ -37457,7 +37462,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" hidden="1" spans="1:5">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -37466,7 +37471,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" hidden="1" spans="1:5">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -37475,7 +37480,7 @@
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" hidden="1" spans="1:5">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -37484,7 +37489,7 @@
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" hidden="1" spans="1:5">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -37493,7 +37498,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" hidden="1" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>777</v>
       </c>
@@ -37508,7 +37513,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" hidden="1" spans="1:5">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -37517,7 +37522,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" hidden="1" spans="1:5">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -37526,7 +37531,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" hidden="1" spans="1:5">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -37535,7 +37540,7 @@
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" hidden="1" spans="1:5">
       <c r="A64" s="2" t="s">
         <v>779</v>
       </c>
@@ -37550,7 +37555,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" hidden="1" spans="1:5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -37559,7 +37564,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" hidden="1" spans="1:5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -37568,7 +37573,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" hidden="1" spans="1:5">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -37577,7 +37582,7 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" hidden="1" spans="1:5">
       <c r="A68" s="2" t="s">
         <v>781</v>
       </c>
@@ -37592,7 +37597,7 @@
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" hidden="1" spans="1:5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -37601,7 +37606,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" hidden="1" spans="1:5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -37610,7 +37615,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" hidden="1" spans="1:5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -37619,7 +37624,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" hidden="1" spans="1:5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -37628,7 +37633,7 @@
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" hidden="1" spans="1:5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -37637,7 +37642,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" hidden="1" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>782</v>
       </c>
@@ -37652,7 +37657,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" hidden="1" spans="1:5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -37661,7 +37666,7 @@
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" hidden="1" spans="1:5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -37670,7 +37675,7 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" hidden="1" spans="1:5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -37679,7 +37684,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" hidden="1" spans="1:5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -37688,7 +37693,7 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" hidden="1" spans="1:5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -37697,7 +37702,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" hidden="1" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>783</v>
       </c>
@@ -37712,7 +37717,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" hidden="1" spans="1:5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -37721,7 +37726,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" hidden="1" spans="1:5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -37730,7 +37735,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" hidden="1" spans="1:5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -37739,7 +37744,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" hidden="1" spans="1:5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -37748,7 +37753,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" hidden="1" spans="1:5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -37757,7 +37762,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" hidden="1" spans="1:5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -37766,7 +37771,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" hidden="1" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>785</v>
       </c>
@@ -37781,7 +37786,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" hidden="1" spans="1:5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -37790,7 +37795,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" hidden="1" spans="1:5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -37799,7 +37804,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" hidden="1" spans="1:5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -37808,7 +37813,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" hidden="1" spans="1:5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -37817,7 +37822,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" hidden="1" spans="1:5">
       <c r="A92" s="2" t="s">
         <v>786</v>
       </c>
@@ -37832,7 +37837,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" hidden="1" spans="1:5">
       <c r="A93" s="2" t="s">
         <v>787</v>
       </c>
@@ -37847,7 +37852,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" hidden="1" spans="1:5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -37856,7 +37861,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" hidden="1" spans="1:5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -37865,7 +37870,7 @@
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" hidden="1" spans="1:5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -37874,7 +37879,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" hidden="1" spans="1:5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -37883,7 +37888,7 @@
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" hidden="1" spans="1:5">
       <c r="A98" s="2" t="s">
         <v>791</v>
       </c>
@@ -37898,7 +37903,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" hidden="1" spans="1:5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -37907,7 +37912,7 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" hidden="1" spans="1:5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -37916,7 +37921,7 @@
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" hidden="1" spans="1:5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -37925,7 +37930,7 @@
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" hidden="1" spans="1:5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -37934,7 +37939,7 @@
       </c>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" hidden="1" spans="1:5">
       <c r="A103" s="2" t="s">
         <v>792</v>
       </c>
@@ -37949,7 +37954,7 @@
       </c>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" hidden="1" spans="1:5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -37958,7 +37963,7 @@
       </c>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" hidden="1" spans="1:5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -37967,7 +37972,7 @@
       </c>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" hidden="1" spans="1:5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -37976,7 +37981,7 @@
       </c>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" hidden="1" spans="1:5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -37985,7 +37990,7 @@
       </c>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" hidden="1" spans="1:5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -37994,7 +37999,7 @@
       </c>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" hidden="1" spans="1:5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -38801,7 +38806,7 @@
       </c>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" hidden="1" spans="1:5">
       <c r="A198" s="2" t="s">
         <v>267</v>
       </c>
@@ -38818,7 +38823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" hidden="1" spans="1:5">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -38827,7 +38832,7 @@
       </c>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" hidden="1" spans="1:5">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -38836,7 +38841,7 @@
       </c>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" hidden="1" spans="1:5">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -38845,7 +38850,7 @@
       </c>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" hidden="1" spans="1:5">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -38854,7 +38859,7 @@
       </c>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" hidden="1" spans="1:5">
       <c r="A203" s="2" t="s">
         <v>881</v>
       </c>
@@ -38871,7 +38876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" hidden="1" spans="1:5">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -38880,7 +38885,7 @@
       </c>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" hidden="1" spans="1:5">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -38889,7 +38894,7 @@
       </c>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" hidden="1" spans="1:5">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -38898,7 +38903,7 @@
       </c>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" hidden="1" spans="1:5">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -38907,7 +38912,7 @@
       </c>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" hidden="1" spans="1:5">
       <c r="A208" s="2" t="s">
         <v>882</v>
       </c>
@@ -38922,7 +38927,7 @@
       </c>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" hidden="1" spans="1:5">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -38931,7 +38936,7 @@
       </c>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" hidden="1" spans="1:5">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -38940,7 +38945,7 @@
       </c>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" hidden="1" spans="1:5">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -38949,7 +38954,7 @@
       </c>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" hidden="1" spans="1:5">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -38958,7 +38963,7 @@
       </c>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" hidden="1" spans="1:5">
       <c r="A213" s="2" t="s">
         <v>269</v>
       </c>
@@ -38975,7 +38980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" hidden="1" spans="1:5">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -38984,7 +38989,7 @@
       </c>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" hidden="1" spans="1:5">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -38993,7 +38998,7 @@
       </c>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" hidden="1" spans="1:5">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -39002,7 +39007,7 @@
       </c>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" hidden="1" spans="1:5">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -39011,7 +39016,7 @@
       </c>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" hidden="1" spans="1:5">
       <c r="A218" s="2" t="s">
         <v>883</v>
       </c>
@@ -39026,7 +39031,7 @@
       </c>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" hidden="1" spans="1:5">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -39035,7 +39040,7 @@
       </c>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" hidden="1" spans="1:5">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -39044,7 +39049,7 @@
       </c>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" hidden="1" spans="1:5">
       <c r="A221" s="2" t="s">
         <v>885</v>
       </c>
@@ -39059,7 +39064,7 @@
       </c>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" hidden="1" spans="1:5">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -39068,7 +39073,7 @@
       </c>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" hidden="1" spans="1:5">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -39077,7 +39082,7 @@
       </c>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" hidden="1" spans="1:5">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -39086,7 +39091,7 @@
       </c>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" hidden="1" spans="1:5">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -39095,7 +39100,7 @@
       </c>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" hidden="1" spans="1:5">
       <c r="A226" s="2" t="s">
         <v>886</v>
       </c>
@@ -39110,7 +39115,7 @@
       </c>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" hidden="1" spans="1:5">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -39119,7 +39124,7 @@
       </c>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" hidden="1" spans="1:5">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -39128,7 +39133,7 @@
       </c>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" hidden="1" spans="1:5">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -39137,7 +39142,7 @@
       </c>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" hidden="1" spans="1:5">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -39146,7 +39151,7 @@
       </c>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" hidden="1" spans="1:5">
       <c r="A231" s="2" t="s">
         <v>887</v>
       </c>
@@ -39161,7 +39166,7 @@
       </c>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" hidden="1" spans="1:5">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -39170,7 +39175,7 @@
       </c>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" hidden="1" spans="1:5">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -39179,7 +39184,7 @@
       </c>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" hidden="1" spans="1:5">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -39188,7 +39193,7 @@
       </c>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" hidden="1" spans="1:5">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -39197,7 +39202,7 @@
       </c>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" hidden="1" spans="1:5">
       <c r="A236" s="2" t="s">
         <v>888</v>
       </c>
@@ -39212,7 +39217,7 @@
       </c>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" hidden="1" spans="1:5">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -39221,7 +39226,7 @@
       </c>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" hidden="1" spans="1:5">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -39230,7 +39235,7 @@
       </c>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" hidden="1" spans="1:5">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -39239,7 +39244,7 @@
       </c>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" hidden="1" spans="1:5">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -39248,7 +39253,7 @@
       </c>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" hidden="1" spans="1:5">
       <c r="A241" s="2" t="s">
         <v>889</v>
       </c>
@@ -39263,7 +39268,7 @@
       </c>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" hidden="1" spans="1:5">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -39272,7 +39277,7 @@
       </c>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" hidden="1" spans="1:5">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -39281,7 +39286,7 @@
       </c>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" hidden="1" spans="1:5">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -39290,7 +39295,7 @@
       </c>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" hidden="1" spans="1:5">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -39299,7 +39304,7 @@
       </c>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" hidden="1" spans="1:5">
       <c r="A246" s="2" t="s">
         <v>890</v>
       </c>
@@ -39314,7 +39319,7 @@
       </c>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" hidden="1" spans="1:5">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -39323,7 +39328,7 @@
       </c>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" hidden="1" spans="1:5">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -39332,7 +39337,7 @@
       </c>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" hidden="1" spans="1:5">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -39341,7 +39346,7 @@
       </c>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" hidden="1" spans="1:5">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -39350,7 +39355,7 @@
       </c>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" hidden="1" spans="1:5">
       <c r="A251" s="2" t="s">
         <v>891</v>
       </c>
@@ -39365,7 +39370,7 @@
       </c>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" hidden="1" spans="1:5">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -39374,7 +39379,7 @@
       </c>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" hidden="1" spans="1:5">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -39383,7 +39388,7 @@
       </c>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" hidden="1" spans="1:5">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -39392,7 +39397,7 @@
       </c>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" hidden="1" spans="1:5">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -39401,7 +39406,7 @@
       </c>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" hidden="1" spans="1:5">
       <c r="A256" s="2" t="s">
         <v>892</v>
       </c>
@@ -39416,7 +39421,7 @@
       </c>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" hidden="1" spans="1:5">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -39425,7 +39430,7 @@
       </c>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" hidden="1" spans="1:5">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -39434,7 +39439,7 @@
       </c>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" hidden="1" spans="1:5">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -39443,7 +39448,7 @@
       </c>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" hidden="1" spans="1:5">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -39452,7 +39457,7 @@
       </c>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" hidden="1" spans="1:5">
       <c r="A261" s="2" t="s">
         <v>893</v>
       </c>
@@ -39467,7 +39472,7 @@
       </c>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" hidden="1" spans="1:5">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -39476,7 +39481,7 @@
       </c>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" hidden="1" spans="1:5">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -39485,7 +39490,7 @@
       </c>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" hidden="1" spans="1:5">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -39494,7 +39499,7 @@
       </c>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" hidden="1" spans="1:5">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -39503,7 +39508,7 @@
       </c>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" hidden="1" spans="1:5">
       <c r="A266" s="2" t="s">
         <v>894</v>
       </c>
@@ -39518,7 +39523,7 @@
       </c>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" hidden="1" spans="1:5">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -39527,7 +39532,7 @@
       </c>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" hidden="1" spans="1:5">
       <c r="A268" s="2" t="s">
         <v>897</v>
       </c>
@@ -39542,7 +39547,7 @@
       </c>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" hidden="1" spans="1:5">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -39551,7 +39556,7 @@
       </c>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" hidden="1" spans="1:5">
       <c r="A270" s="2" t="s">
         <v>898</v>
       </c>
@@ -39566,7 +39571,7 @@
       </c>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" hidden="1" spans="1:5">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -39575,7 +39580,7 @@
       </c>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" hidden="1" spans="1:5">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -39584,7 +39589,7 @@
       </c>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" hidden="1" spans="1:5">
       <c r="A273" s="2" t="s">
         <v>902</v>
       </c>
@@ -39599,7 +39604,7 @@
       </c>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" hidden="1" spans="1:5">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -39608,7 +39613,7 @@
       </c>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" hidden="1" spans="1:5">
       <c r="A275" s="2" t="s">
         <v>905</v>
       </c>
@@ -39623,7 +39628,7 @@
       </c>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" hidden="1" spans="1:5">
       <c r="A276" s="2" t="s">
         <v>907</v>
       </c>
@@ -39638,7 +39643,7 @@
       </c>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" hidden="1" spans="1:5">
       <c r="A277" s="2" t="s">
         <v>909</v>
       </c>
@@ -39653,7 +39658,7 @@
       </c>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" hidden="1" spans="1:5">
       <c r="A278" s="2" t="s">
         <v>910</v>
       </c>
@@ -39668,7 +39673,7 @@
       </c>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" hidden="1" spans="1:5">
       <c r="A279" s="2" t="s">
         <v>911</v>
       </c>
@@ -39683,7 +39688,7 @@
       </c>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" hidden="1" spans="1:5">
       <c r="A280" s="2" t="s">
         <v>912</v>
       </c>
@@ -39700,7 +39705,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" hidden="1" spans="1:5">
       <c r="A281" s="2" t="s">
         <v>915</v>
       </c>
@@ -39715,7 +39720,7 @@
       </c>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" hidden="1" spans="1:5">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -39724,7 +39729,7 @@
       </c>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" hidden="1" spans="1:5">
       <c r="A283" s="2" t="s">
         <v>918</v>
       </c>
@@ -39741,7 +39746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" hidden="1" spans="1:5">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -39750,7 +39755,7 @@
       </c>
       <c r="E284" s="2"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" hidden="1" spans="1:5">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -39759,7 +39764,7 @@
       </c>
       <c r="E285" s="2"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" hidden="1" spans="1:5">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -39768,7 +39773,7 @@
       </c>
       <c r="E286" s="2"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" hidden="1" spans="1:5">
       <c r="A287" s="2" t="s">
         <v>174</v>
       </c>
@@ -39785,7 +39790,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" hidden="1" spans="1:5">
       <c r="A288" s="2" t="s">
         <v>920</v>
       </c>
@@ -39802,7 +39807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" hidden="1" spans="1:5">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -39811,7 +39816,7 @@
       </c>
       <c r="E289" s="2"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" hidden="1" spans="1:5">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -39820,7 +39825,7 @@
       </c>
       <c r="E290" s="2"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" hidden="1" spans="1:5">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -39829,7 +39834,7 @@
       </c>
       <c r="E291" s="2"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" hidden="1" spans="1:5">
       <c r="A292" s="2" t="s">
         <v>922</v>
       </c>
@@ -39846,7 +39851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" hidden="1" spans="1:5">
       <c r="A293" s="2" t="s">
         <v>924</v>
       </c>
@@ -39861,7 +39866,7 @@
       </c>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" hidden="1" spans="1:5">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -39870,7 +39875,7 @@
       </c>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" hidden="1" spans="1:5">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -39879,7 +39884,7 @@
       </c>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" hidden="1" spans="1:5">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -39888,7 +39893,7 @@
       </c>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" hidden="1" spans="1:5">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -39897,7 +39902,7 @@
       </c>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" hidden="1" spans="1:5">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -39906,7 +39911,7 @@
       </c>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" hidden="1" spans="1:5">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -39915,7 +39920,7 @@
       </c>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" hidden="1" spans="1:5">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -39924,7 +39929,7 @@
       </c>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" hidden="1" spans="1:5">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -39933,7 +39938,7 @@
       </c>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" hidden="1" spans="1:5">
       <c r="A302" s="2" t="s">
         <v>932</v>
       </c>
@@ -39948,7 +39953,7 @@
       </c>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" hidden="1" spans="1:5">
       <c r="A303" s="2" t="s">
         <v>933</v>
       </c>
@@ -39963,7 +39968,7 @@
       </c>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" hidden="1" spans="1:5">
       <c r="A304" s="2" t="s">
         <v>934</v>
       </c>
@@ -39978,7 +39983,7 @@
       </c>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" hidden="1" spans="1:5">
       <c r="A305" s="2" t="s">
         <v>935</v>
       </c>
@@ -39993,7 +39998,7 @@
       </c>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" hidden="1" spans="1:5">
       <c r="A306" s="2" t="s">
         <v>224</v>
       </c>
@@ -40008,7 +40013,7 @@
       </c>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" hidden="1" spans="1:5">
       <c r="A307" s="2" t="s">
         <v>936</v>
       </c>
@@ -40023,7 +40028,7 @@
       </c>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" hidden="1" spans="1:5">
       <c r="A308" s="2" t="s">
         <v>937</v>
       </c>
@@ -40040,7 +40045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" hidden="1" spans="1:5">
       <c r="A309" s="2" t="s">
         <v>939</v>
       </c>
@@ -40055,7 +40060,7 @@
       </c>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" hidden="1" spans="1:5">
       <c r="A310" s="2" t="s">
         <v>940</v>
       </c>
@@ -40070,7 +40075,7 @@
       </c>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" hidden="1" spans="1:5">
       <c r="A311" s="2" t="s">
         <v>941</v>
       </c>
@@ -40085,7 +40090,7 @@
       </c>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" hidden="1" spans="1:5">
       <c r="A312" s="2" t="s">
         <v>942</v>
       </c>
@@ -40100,7 +40105,7 @@
       </c>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" hidden="1" spans="1:5">
       <c r="A313" s="2" t="s">
         <v>943</v>
       </c>
@@ -40115,7 +40120,7 @@
       </c>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" hidden="1" spans="1:5">
       <c r="A314" s="2" t="s">
         <v>944</v>
       </c>
@@ -40132,7 +40137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" hidden="1" spans="1:5">
       <c r="A315" s="2" t="s">
         <v>946</v>
       </c>
@@ -40147,7 +40152,7 @@
       </c>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" hidden="1" spans="1:5">
       <c r="A316" s="2" t="s">
         <v>947</v>
       </c>
@@ -40162,7 +40167,7 @@
       </c>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" hidden="1" spans="1:5">
       <c r="A317" s="2" t="s">
         <v>948</v>
       </c>
@@ -40177,7 +40182,7 @@
       </c>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" hidden="1" spans="1:5">
       <c r="A318" s="2" t="s">
         <v>949</v>
       </c>
@@ -40192,7 +40197,7 @@
       </c>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" hidden="1" spans="1:5">
       <c r="A319" s="2" t="s">
         <v>950</v>
       </c>
@@ -40207,7 +40212,7 @@
       </c>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" hidden="1" spans="1:5">
       <c r="A320" s="2" t="s">
         <v>951</v>
       </c>
@@ -40222,7 +40227,7 @@
       </c>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" hidden="1" spans="1:5">
       <c r="A321" s="2" t="s">
         <v>952</v>
       </c>
@@ -40237,7 +40242,7 @@
       </c>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" hidden="1" spans="1:5">
       <c r="A322" s="2" t="s">
         <v>953</v>
       </c>
@@ -40252,7 +40257,7 @@
       </c>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" hidden="1" spans="1:5">
       <c r="A323" s="2" t="s">
         <v>954</v>
       </c>
@@ -40267,7 +40272,7 @@
       </c>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" hidden="1" spans="1:5">
       <c r="A324" s="2" t="s">
         <v>955</v>
       </c>
@@ -40282,7 +40287,7 @@
       </c>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" hidden="1" spans="1:5">
       <c r="A325" s="2" t="s">
         <v>957</v>
       </c>
@@ -40299,7 +40304,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" hidden="1" spans="1:5">
       <c r="A326" s="2" t="s">
         <v>960</v>
       </c>
@@ -40316,7 +40321,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" hidden="1" spans="1:5">
       <c r="A327" s="2" t="s">
         <v>962</v>
       </c>
@@ -40329,7 +40334,7 @@
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" hidden="1" spans="1:5">
       <c r="A328" s="2" t="s">
         <v>963</v>
       </c>
@@ -40344,7 +40349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" hidden="1" spans="1:5">
       <c r="A329" s="2" t="s">
         <v>964</v>
       </c>
@@ -40359,7 +40364,7 @@
       </c>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" hidden="1" spans="1:5">
       <c r="A330" s="2" t="s">
         <v>965</v>
       </c>
@@ -40376,7 +40381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" hidden="1" spans="1:5">
       <c r="A331" s="2" t="s">
         <v>967</v>
       </c>
@@ -40391,7 +40396,7 @@
       </c>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" hidden="1" spans="1:5">
       <c r="A332" s="2" t="s">
         <v>968</v>
       </c>
@@ -40406,7 +40411,7 @@
       </c>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" hidden="1" spans="1:5">
       <c r="A333" s="2" t="s">
         <v>969</v>
       </c>
@@ -40421,7 +40426,7 @@
       </c>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" hidden="1" spans="1:5">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -40430,7 +40435,7 @@
       </c>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" hidden="1" spans="1:5">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -40439,7 +40444,7 @@
       </c>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" hidden="1" spans="1:5">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -40448,7 +40453,7 @@
       </c>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" hidden="1" spans="1:5">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -40457,7 +40462,7 @@
       </c>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" hidden="1" spans="1:5">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -40466,7 +40471,7 @@
       </c>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" hidden="1" spans="1:5">
       <c r="A339" s="2" t="s">
         <v>975</v>
       </c>
@@ -40481,7 +40486,7 @@
       </c>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" hidden="1" spans="1:5">
       <c r="A340" s="2" t="s">
         <v>976</v>
       </c>
@@ -40498,7 +40503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" hidden="1" spans="1:5">
       <c r="A341" s="2" t="s">
         <v>978</v>
       </c>
@@ -40513,7 +40518,7 @@
       </c>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" hidden="1" spans="1:5">
       <c r="A342" s="2" t="s">
         <v>979</v>
       </c>
@@ -40528,7 +40533,7 @@
       </c>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" hidden="1" spans="1:5">
       <c r="A343" s="2" t="s">
         <v>980</v>
       </c>
@@ -40543,7 +40548,7 @@
       </c>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" hidden="1" spans="1:5">
       <c r="A344" s="2" t="s">
         <v>981</v>
       </c>
@@ -40558,7 +40563,7 @@
       </c>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" hidden="1" spans="1:5">
       <c r="A345" s="2" t="s">
         <v>982</v>
       </c>
@@ -40573,7 +40578,7 @@
       </c>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" hidden="1" spans="1:5">
       <c r="A346" s="2" t="s">
         <v>983</v>
       </c>
@@ -40588,7 +40593,7 @@
       </c>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" hidden="1" spans="1:5">
       <c r="A347" s="2" t="s">
         <v>984</v>
       </c>
@@ -40603,7 +40608,7 @@
       </c>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" hidden="1" spans="1:5">
       <c r="A348" s="2" t="s">
         <v>985</v>
       </c>
@@ -40618,7 +40623,7 @@
       </c>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" hidden="1" spans="1:5">
       <c r="A349" s="2" t="s">
         <v>986</v>
       </c>
@@ -40633,7 +40638,7 @@
       </c>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" hidden="1" spans="1:5">
       <c r="A350" s="2" t="s">
         <v>987</v>
       </c>
@@ -40648,7 +40653,7 @@
       </c>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" hidden="1" spans="1:5">
       <c r="A351" s="2" t="s">
         <v>988</v>
       </c>
@@ -40663,7 +40668,7 @@
       </c>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" hidden="1" spans="1:5">
       <c r="A352" s="2" t="s">
         <v>989</v>
       </c>
@@ -40678,7 +40683,7 @@
       </c>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" hidden="1" spans="1:5">
       <c r="A353" s="2" t="s">
         <v>990</v>
       </c>
@@ -40693,7 +40698,7 @@
       </c>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" hidden="1" spans="1:5">
       <c r="A354" s="2" t="s">
         <v>991</v>
       </c>
@@ -40708,7 +40713,7 @@
       </c>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" hidden="1" spans="1:5">
       <c r="A355" s="2" t="s">
         <v>992</v>
       </c>
@@ -40723,7 +40728,7 @@
       </c>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" hidden="1" spans="1:5">
       <c r="A356" s="2" t="s">
         <v>993</v>
       </c>
@@ -40738,7 +40743,7 @@
       </c>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" hidden="1" spans="1:5">
       <c r="A357" s="2" t="s">
         <v>994</v>
       </c>
@@ -40753,7 +40758,7 @@
       </c>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" hidden="1" spans="1:5">
       <c r="A358" s="2" t="s">
         <v>995</v>
       </c>
@@ -40768,7 +40773,7 @@
       </c>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" hidden="1" spans="1:5">
       <c r="A359" s="2" t="s">
         <v>996</v>
       </c>
@@ -40783,7 +40788,7 @@
       </c>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" hidden="1" spans="1:5">
       <c r="A360" s="2" t="s">
         <v>997</v>
       </c>
@@ -40798,7 +40803,7 @@
       </c>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" hidden="1" spans="1:5">
       <c r="A361" s="2" t="s">
         <v>998</v>
       </c>
@@ -40813,7 +40818,7 @@
       </c>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" hidden="1" spans="1:5">
       <c r="A362" s="2" t="s">
         <v>999</v>
       </c>
@@ -40828,7 +40833,7 @@
       </c>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" hidden="1" spans="1:5">
       <c r="A363" s="2" t="s">
         <v>1000</v>
       </c>
@@ -40843,7 +40848,7 @@
       </c>
       <c r="E363" s="3"/>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" hidden="1" spans="1:5">
       <c r="A364" s="2" t="s">
         <v>1001</v>
       </c>
@@ -40858,7 +40863,7 @@
       </c>
       <c r="E364" s="3"/>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" hidden="1" spans="1:5">
       <c r="A365" s="2" t="s">
         <v>1002</v>
       </c>
@@ -40873,7 +40878,7 @@
       </c>
       <c r="E365" s="3"/>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" hidden="1" spans="1:5">
       <c r="A366" s="2" t="s">
         <v>1003</v>
       </c>
@@ -40888,7 +40893,7 @@
       </c>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" hidden="1" spans="1:5">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -40897,7 +40902,7 @@
       </c>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" hidden="1" spans="1:5">
       <c r="A368" s="2" t="s">
         <v>1006</v>
       </c>
@@ -40912,7 +40917,7 @@
       </c>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" hidden="1" spans="1:5">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -40921,7 +40926,7 @@
       </c>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" hidden="1" spans="1:5">
       <c r="A370" s="2" t="s">
         <v>1007</v>
       </c>
@@ -40936,7 +40941,7 @@
       </c>
       <c r="E370" s="3"/>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" hidden="1" spans="1:5">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -40945,7 +40950,7 @@
       </c>
       <c r="E371" s="3"/>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" hidden="1" spans="1:5">
       <c r="A372" s="2" t="s">
         <v>1008</v>
       </c>
@@ -40960,7 +40965,7 @@
       </c>
       <c r="E372" s="3"/>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" hidden="1" spans="1:5">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -40969,7 +40974,7 @@
       </c>
       <c r="E373" s="3"/>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" hidden="1" spans="1:5">
       <c r="A374" s="2" t="s">
         <v>1009</v>
       </c>
@@ -40986,7 +40991,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" hidden="1" spans="1:5">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -40997,7 +41002,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" hidden="1" spans="1:5">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -41008,7 +41013,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" hidden="1" spans="1:5">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -41019,7 +41024,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" hidden="1" spans="1:5">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -41028,7 +41033,7 @@
       </c>
       <c r="E378" s="3"/>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" hidden="1" spans="1:5">
       <c r="A379" s="2" t="s">
         <v>1014</v>
       </c>
@@ -41043,7 +41048,7 @@
       </c>
       <c r="E379" s="3"/>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" hidden="1" spans="1:5">
       <c r="A380" s="2" t="s">
         <v>1016</v>
       </c>
@@ -41060,7 +41065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" hidden="1" spans="1:5">
       <c r="A381" s="2" t="s">
         <v>1018</v>
       </c>
@@ -41077,7 +41082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" hidden="1" spans="1:5">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -41086,7 +41091,7 @@
       </c>
       <c r="E382" s="2"/>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" hidden="1" spans="1:5">
       <c r="A383" s="2" t="s">
         <v>1020</v>
       </c>
@@ -41101,7 +41106,7 @@
       </c>
       <c r="E383" s="3"/>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" hidden="1" spans="1:5">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -41110,7 +41115,7 @@
       </c>
       <c r="E384" s="3"/>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" hidden="1" spans="1:5">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -41119,7 +41124,7 @@
       </c>
       <c r="E385" s="3"/>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" hidden="1" spans="1:5">
       <c r="A386" s="2" t="s">
         <v>1023</v>
       </c>
@@ -41136,7 +41141,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" hidden="1" spans="1:5">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -41147,7 +41152,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" hidden="1" spans="1:5">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -41158,7 +41163,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" hidden="1" spans="1:5">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -41169,7 +41174,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" hidden="1" spans="1:5">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -41180,7 +41185,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" hidden="1" spans="1:5">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -41191,7 +41196,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" hidden="1" spans="1:5">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -41200,7 +41205,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" hidden="1" spans="1:5">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -41209,7 +41214,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" hidden="1" spans="1:5">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -41218,7 +41223,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" hidden="1" spans="1:5">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -41227,7 +41232,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" hidden="1" spans="1:5">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -41236,7 +41241,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" hidden="1" spans="1:5">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -41245,7 +41250,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" hidden="1" spans="1:5">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -41254,7 +41259,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" hidden="1" spans="1:5">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -41263,7 +41268,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" hidden="1" spans="1:5">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -41272,7 +41277,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" hidden="1" spans="1:5">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -41281,7 +41286,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" hidden="1" spans="1:5">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -41290,7 +41295,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" hidden="1" spans="1:5">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -41299,7 +41304,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" hidden="1" spans="1:5">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -41308,7 +41313,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" hidden="1" spans="1:5">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -41317,7 +41322,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" hidden="1" spans="1:5">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -41326,7 +41331,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" hidden="1" spans="1:5">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -41335,7 +41340,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" hidden="1" spans="1:5">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -41344,7 +41349,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" hidden="1" spans="1:5">
       <c r="A409" s="2" t="s">
         <v>1027</v>
       </c>
@@ -41361,7 +41366,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" hidden="1" spans="1:5">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -41372,7 +41377,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" hidden="1" spans="1:5">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -41383,7 +41388,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" hidden="1" spans="1:5">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -41394,7 +41399,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" hidden="1" spans="1:5">
       <c r="A413" s="2" t="s">
         <v>1030</v>
       </c>
@@ -41409,7 +41414,7 @@
       </c>
       <c r="E413" s="3"/>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" hidden="1" spans="1:5">
       <c r="A414" s="2" t="s">
         <v>1031</v>
       </c>
@@ -41426,7 +41431,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" hidden="1" spans="1:5">
       <c r="A415" s="2" t="s">
         <v>1032</v>
       </c>
@@ -41443,7 +41448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" hidden="1" spans="1:5">
       <c r="A416" s="2" t="s">
         <v>1034</v>
       </c>
@@ -41458,7 +41463,7 @@
       </c>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" hidden="1" spans="1:5">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -41467,7 +41472,7 @@
       </c>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" hidden="1" spans="1:5">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -41476,7 +41481,7 @@
       </c>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" hidden="1" spans="1:5">
       <c r="A419" s="2" t="s">
         <v>1035</v>
       </c>
@@ -41493,7 +41498,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" hidden="1" spans="1:5">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -41504,7 +41509,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" hidden="1" spans="1:5">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -41515,7 +41520,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" hidden="1" spans="1:5">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -41526,7 +41531,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" hidden="1" spans="1:5">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -41537,7 +41542,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" hidden="1" spans="1:5">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -41546,7 +41551,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" hidden="1" spans="1:5">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -41555,7 +41560,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" hidden="1" spans="1:5">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -41564,7 +41569,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" hidden="1" spans="1:5">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -41573,7 +41578,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" hidden="1" spans="1:5">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -41582,7 +41587,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" hidden="1" spans="1:5">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -41591,7 +41596,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" hidden="1" spans="1:5">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -41600,7 +41605,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" hidden="1" spans="1:5">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -41609,7 +41614,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" hidden="1" spans="1:5">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -41618,7 +41623,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" hidden="1" spans="1:5">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -41627,7 +41632,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" hidden="1" spans="1:5">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -41636,7 +41641,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" hidden="1" spans="1:5">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -41645,7 +41650,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" hidden="1" spans="1:5">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -41654,7 +41659,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" hidden="1" spans="1:5">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -41663,7 +41668,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" hidden="1" spans="1:5">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -41672,7 +41677,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" hidden="1" spans="1:5">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -41681,7 +41686,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" hidden="1" spans="1:5">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -41690,7 +41695,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" hidden="1" spans="1:5">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -41699,7 +41704,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" hidden="1" spans="1:5">
       <c r="A442" s="2" t="s">
         <v>1038</v>
       </c>
@@ -41716,7 +41721,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" hidden="1" spans="1:5">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -41727,7 +41732,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" hidden="1" spans="1:5">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -41738,7 +41743,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" hidden="1" spans="1:5">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -41749,7 +41754,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" hidden="1" spans="1:5">
       <c r="A446" s="2" t="s">
         <v>1041</v>
       </c>
@@ -41764,7 +41769,7 @@
       </c>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" hidden="1" spans="1:5">
       <c r="A447" s="2" t="s">
         <v>1042</v>
       </c>
@@ -41781,7 +41786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" hidden="1" spans="1:5">
       <c r="A448" s="2" t="s">
         <v>1043</v>
       </c>
@@ -41798,7 +41803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" hidden="1" spans="1:5">
       <c r="A449" s="2" t="s">
         <v>1045</v>
       </c>
@@ -41813,7 +41818,7 @@
       </c>
       <c r="E449" s="3"/>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" hidden="1" spans="1:5">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -41822,7 +41827,7 @@
       </c>
       <c r="E450" s="3"/>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" hidden="1" spans="1:5">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -41831,7 +41836,7 @@
       </c>
       <c r="E451" s="3"/>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" hidden="1" spans="1:5">
       <c r="A452" s="2" t="s">
         <v>1046</v>
       </c>
@@ -41848,7 +41853,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" hidden="1" spans="1:5">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -41859,7 +41864,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" hidden="1" spans="1:5">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -41870,7 +41875,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" hidden="1" spans="1:5">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -41881,7 +41886,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" hidden="1" spans="1:5">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -41892,7 +41897,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" hidden="1" spans="1:5">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -41903,7 +41908,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" hidden="1" spans="1:5">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -41912,7 +41917,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" hidden="1" spans="1:5">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -41921,7 +41926,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" hidden="1" spans="1:5">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -41930,7 +41935,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" hidden="1" spans="1:5">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -41939,7 +41944,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" hidden="1" spans="1:5">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -41948,7 +41953,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" hidden="1" spans="1:5">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -41957,7 +41962,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" hidden="1" spans="1:5">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -41966,7 +41971,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" hidden="1" spans="1:5">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -41975,7 +41980,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" hidden="1" spans="1:5">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -41984,7 +41989,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" hidden="1" spans="1:5">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -41993,7 +41998,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" hidden="1" spans="1:5">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -42002,7 +42007,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" hidden="1" spans="1:5">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -42011,7 +42016,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" hidden="1" spans="1:5">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -42020,7 +42025,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" hidden="1" spans="1:5">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -42029,7 +42034,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" hidden="1" spans="1:5">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -42038,7 +42043,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" hidden="1" spans="1:5">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -42047,7 +42052,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" hidden="1" spans="1:5">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -42056,7 +42061,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" hidden="1" spans="1:5">
       <c r="A475" s="2" t="s">
         <v>1051</v>
       </c>
@@ -42073,7 +42078,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" hidden="1" spans="1:5">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -42084,7 +42089,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" hidden="1" spans="1:5">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -42095,7 +42100,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" hidden="1" spans="1:5">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -42106,7 +42111,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" hidden="1" spans="1:5">
       <c r="A479" s="2" t="s">
         <v>1054</v>
       </c>
@@ -42121,7 +42126,7 @@
       </c>
       <c r="E479" s="3"/>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" hidden="1" spans="1:5">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -42130,7 +42135,7 @@
       </c>
       <c r="E480" s="3"/>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" hidden="1" spans="1:5">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -42139,7 +42144,7 @@
       </c>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" hidden="1" spans="1:5">
       <c r="A482" s="2" t="s">
         <v>1055</v>
       </c>
@@ -42156,7 +42161,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" hidden="1" spans="1:5">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -42167,7 +42172,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" hidden="1" spans="1:5">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -42178,7 +42183,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" hidden="1" spans="1:5">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -42189,7 +42194,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" hidden="1" spans="1:5">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -42200,7 +42205,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" hidden="1" spans="1:5">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -42209,7 +42214,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" hidden="1" spans="1:5">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -42218,7 +42223,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" hidden="1" spans="1:5">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -42227,7 +42232,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" hidden="1" spans="1:5">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -42236,7 +42241,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" hidden="1" spans="1:5">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -42245,7 +42250,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" hidden="1" spans="1:5">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -42254,7 +42259,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" hidden="1" spans="1:5">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -42263,7 +42268,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" hidden="1" spans="1:5">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -42272,7 +42277,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" hidden="1" spans="1:5">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -42281,7 +42286,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" hidden="1" spans="1:5">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -42290,7 +42295,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" hidden="1" spans="1:5">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -42299,7 +42304,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" hidden="1" spans="1:5">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -42308,7 +42313,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" hidden="1" spans="1:5">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -42317,7 +42322,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" hidden="1" spans="1:5">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -42326,7 +42331,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" hidden="1" spans="1:5">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -42335,7 +42340,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" hidden="1" spans="1:5">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -42344,7 +42349,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" hidden="1" spans="1:5">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -42353,7 +42358,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" hidden="1" spans="1:5">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -42362,7 +42367,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" hidden="1" spans="1:5">
       <c r="A505" s="2" t="s">
         <v>1059</v>
       </c>
@@ -42379,7 +42384,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" hidden="1" spans="1:5">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -42390,7 +42395,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" hidden="1" spans="1:5">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -42401,7 +42406,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" hidden="1" spans="1:5">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -42412,7 +42417,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" hidden="1" spans="1:5">
       <c r="A509" s="2" t="s">
         <v>1062</v>
       </c>
@@ -42427,7 +42432,7 @@
       </c>
       <c r="E509" s="3"/>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" hidden="1" spans="1:5">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -42436,7 +42441,7 @@
       </c>
       <c r="E510" s="3"/>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" hidden="1" spans="1:5">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -42445,7 +42450,7 @@
       </c>
       <c r="E511" s="3"/>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" hidden="1" spans="1:5">
       <c r="A512" s="2" t="s">
         <v>1063</v>
       </c>
@@ -42462,7 +42467,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" hidden="1" spans="1:5">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -42473,7 +42478,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" hidden="1" spans="1:5">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -42484,7 +42489,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" hidden="1" spans="1:5">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -42495,7 +42500,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" hidden="1" spans="1:5">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -42506,7 +42511,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" hidden="1" spans="1:5">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -42515,7 +42520,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" hidden="1" spans="1:5">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -42524,7 +42529,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" hidden="1" spans="1:5">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -42533,7 +42538,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" hidden="1" spans="1:5">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -42542,7 +42547,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" hidden="1" spans="1:5">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -42551,7 +42556,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" hidden="1" spans="1:5">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -42560,7 +42565,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" hidden="1" spans="1:5">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -42569,7 +42574,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" hidden="1" spans="1:5">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -42578,7 +42583,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" hidden="1" spans="1:5">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -42587,7 +42592,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" hidden="1" spans="1:5">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -42596,7 +42601,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" hidden="1" spans="1:5">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -42605,7 +42610,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" hidden="1" spans="1:5">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -42614,7 +42619,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" hidden="1" spans="1:5">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -42623,7 +42628,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" hidden="1" spans="1:5">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -42632,7 +42637,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" hidden="1" spans="1:5">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -42641,7 +42646,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" hidden="1" spans="1:5">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -42650,7 +42655,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" hidden="1" spans="1:5">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -42659,7 +42664,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" hidden="1" spans="1:5">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -42668,7 +42673,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" hidden="1" spans="1:5">
       <c r="A535" s="2" t="s">
         <v>1066</v>
       </c>
@@ -42685,7 +42690,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" hidden="1" spans="1:5">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -42696,7 +42701,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" hidden="1" spans="1:5">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -42707,7 +42712,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" hidden="1" spans="1:5">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -42718,7 +42723,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" hidden="1" spans="1:5">
       <c r="A539" s="2" t="s">
         <v>1069</v>
       </c>
@@ -42733,7 +42738,7 @@
       </c>
       <c r="E539" s="3"/>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" hidden="1" spans="1:5">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -42742,7 +42747,7 @@
       </c>
       <c r="E540" s="3"/>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" hidden="1" spans="1:5">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -42751,7 +42756,7 @@
       </c>
       <c r="E541" s="3"/>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" hidden="1" spans="1:5">
       <c r="A542" s="2" t="s">
         <v>1070</v>
       </c>
@@ -42768,7 +42773,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" hidden="1" spans="1:5">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -42779,7 +42784,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" hidden="1" spans="1:5">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -42790,7 +42795,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" hidden="1" spans="1:5">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -42801,7 +42806,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" hidden="1" spans="1:5">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -42812,7 +42817,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" hidden="1" spans="1:5">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -42821,7 +42826,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" hidden="1" spans="1:5">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -42830,7 +42835,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" hidden="1" spans="1:5">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -42839,7 +42844,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" hidden="1" spans="1:5">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -42848,7 +42853,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" hidden="1" spans="1:5">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -42857,7 +42862,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" hidden="1" spans="1:5">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -42866,7 +42871,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" hidden="1" spans="1:5">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -42875,7 +42880,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" hidden="1" spans="1:5">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -42884,7 +42889,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" hidden="1" spans="1:5">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -42893,7 +42898,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" hidden="1" spans="1:5">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -42902,7 +42907,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" hidden="1" spans="1:5">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -42911,7 +42916,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" hidden="1" spans="1:5">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -42920,7 +42925,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" hidden="1" spans="1:5">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -42929,7 +42934,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" hidden="1" spans="1:5">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -42938,7 +42943,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" hidden="1" spans="1:5">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -42947,7 +42952,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" hidden="1" spans="1:5">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -42956,7 +42961,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" hidden="1" spans="1:5">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -42965,7 +42970,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" hidden="1" spans="1:5">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -42974,7 +42979,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" hidden="1" spans="1:5">
       <c r="A565" s="2" t="s">
         <v>1073</v>
       </c>
@@ -42991,7 +42996,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" hidden="1" spans="1:5">
       <c r="A566" s="2" t="s">
         <v>1075</v>
       </c>
@@ -43006,7 +43011,7 @@
       </c>
       <c r="E566" s="3"/>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" hidden="1" spans="1:5">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -43015,7 +43020,7 @@
       </c>
       <c r="E567" s="3"/>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" hidden="1" spans="1:5">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -43024,7 +43029,7 @@
       </c>
       <c r="E568" s="3"/>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" hidden="1" spans="1:5">
       <c r="A569" s="2" t="s">
         <v>1076</v>
       </c>
@@ -43041,7 +43046,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" hidden="1" spans="1:5">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -43052,7 +43057,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" hidden="1" spans="1:5">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -43063,7 +43068,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" hidden="1" spans="1:5">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -43074,7 +43079,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" hidden="1" spans="1:5">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -43085,7 +43090,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" hidden="1" spans="1:5">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -43094,7 +43099,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" hidden="1" spans="1:5">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -43103,7 +43108,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" hidden="1" spans="1:5">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -43112,7 +43117,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" hidden="1" spans="1:5">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -43121,7 +43126,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" hidden="1" spans="1:5">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -43130,7 +43135,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" hidden="1" spans="1:5">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -43139,7 +43144,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" hidden="1" spans="1:5">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -43148,7 +43153,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" hidden="1" spans="1:5">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -43157,7 +43162,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" hidden="1" spans="1:5">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -43166,7 +43171,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" hidden="1" spans="1:5">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -43175,7 +43180,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" hidden="1" spans="1:5">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -43184,7 +43189,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" hidden="1" spans="1:5">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -43193,7 +43198,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" hidden="1" spans="1:5">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -43202,7 +43207,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" hidden="1" spans="1:5">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -43211,7 +43216,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" hidden="1" spans="1:5">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -43220,7 +43225,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" hidden="1" spans="1:5">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -43229,7 +43234,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" hidden="1" spans="1:5">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -43238,7 +43243,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" hidden="1" spans="1:5">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -43247,7 +43252,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" hidden="1" spans="1:5">
       <c r="A592" s="2" t="s">
         <v>1080</v>
       </c>
@@ -43262,7 +43267,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" hidden="1" spans="1:5">
       <c r="A593" s="2" t="s">
         <v>1083</v>
       </c>
@@ -43275,7 +43280,7 @@
       </c>
       <c r="E593" s="2"/>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" hidden="1" spans="1:5">
       <c r="A594" s="2" t="s">
         <v>1085</v>
       </c>
@@ -43290,7 +43295,7 @@
       </c>
       <c r="E594" s="2"/>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" hidden="1" spans="1:5">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -43299,7 +43304,7 @@
       </c>
       <c r="E595" s="2"/>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" hidden="1" spans="1:5">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -43308,7 +43313,7 @@
       </c>
       <c r="E596" s="2"/>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" hidden="1" spans="1:5">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -43317,7 +43322,7 @@
       </c>
       <c r="E597" s="2"/>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" hidden="1" spans="1:5">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -43326,7 +43331,7 @@
       </c>
       <c r="E598" s="2"/>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" hidden="1" spans="1:5">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -43335,7 +43340,7 @@
       </c>
       <c r="E599" s="2"/>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" hidden="1" spans="1:5">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -43344,7 +43349,7 @@
       </c>
       <c r="E600" s="2"/>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" hidden="1" spans="1:5">
       <c r="A601" s="2" t="s">
         <v>1088</v>
       </c>
@@ -43357,7 +43362,7 @@
       </c>
       <c r="E601" s="3"/>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" hidden="1" spans="1:5">
       <c r="A602" s="2" t="s">
         <v>1089</v>
       </c>
@@ -43372,7 +43377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" hidden="1" spans="1:5">
       <c r="A603" s="2" t="s">
         <v>1090</v>
       </c>
@@ -43387,7 +43392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" hidden="1" spans="1:5">
       <c r="A604" s="2" t="s">
         <v>1092</v>
       </c>
@@ -43400,7 +43405,7 @@
       </c>
       <c r="E604" s="3"/>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" hidden="1" spans="1:5">
       <c r="A605" s="2" t="s">
         <v>1093</v>
       </c>
@@ -43415,7 +43420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" hidden="1" spans="1:5">
       <c r="A606" s="2" t="s">
         <v>1094</v>
       </c>
@@ -43430,7 +43435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" hidden="1" spans="1:5">
       <c r="A607" s="2" t="s">
         <v>1095</v>
       </c>
@@ -43443,7 +43448,7 @@
       </c>
       <c r="E607" s="3"/>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" hidden="1" spans="1:5">
       <c r="A608" s="2" t="s">
         <v>1096</v>
       </c>
@@ -43458,7 +43463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" hidden="1" spans="1:5">
       <c r="A609" s="2" t="s">
         <v>1097</v>
       </c>
@@ -43473,7 +43478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" hidden="1" spans="1:5">
       <c r="A610" s="2" t="s">
         <v>1098</v>
       </c>
@@ -43486,7 +43491,7 @@
       </c>
       <c r="E610" s="3"/>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" hidden="1" spans="1:5">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="3"/>
@@ -43495,7 +43500,7 @@
       </c>
       <c r="E611" s="3"/>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" hidden="1" spans="1:5">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="3"/>
@@ -43504,7 +43509,7 @@
       </c>
       <c r="E612" s="3"/>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" hidden="1" spans="1:5">
       <c r="A613" s="2" t="s">
         <v>1102</v>
       </c>
@@ -43517,7 +43522,7 @@
       </c>
       <c r="E613" s="3"/>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" hidden="1" spans="1:5">
       <c r="A614" s="3" t="s">
         <v>1102</v>
       </c>
@@ -43532,7 +43537,7 @@
       </c>
       <c r="E614" s="3"/>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" hidden="1" spans="1:5">
       <c r="A615" s="2" t="s">
         <v>686</v>
       </c>
@@ -43545,7 +43550,7 @@
       </c>
       <c r="E615" s="3"/>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" hidden="1" spans="1:5">
       <c r="A616" s="2"/>
       <c r="B616" s="3">
         <v>102053</v>
@@ -43554,7 +43559,7 @@
       <c r="D616" s="2"/>
       <c r="E616" s="3"/>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" hidden="1" spans="1:5">
       <c r="A617" s="2" t="s">
         <v>689</v>
       </c>
@@ -43567,7 +43572,7 @@
       </c>
       <c r="E617" s="3"/>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" hidden="1" spans="1:5">
       <c r="A618" s="2"/>
       <c r="B618" s="3">
         <v>102054</v>
@@ -43578,7 +43583,7 @@
       </c>
       <c r="E618" s="3"/>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" hidden="1" spans="1:5">
       <c r="A619" s="2" t="s">
         <v>1107</v>
       </c>
@@ -43595,7 +43600,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" hidden="1" spans="1:5">
       <c r="A620" s="2"/>
       <c r="B620" s="3"/>
       <c r="C620" s="2"/>
@@ -43604,7 +43609,7 @@
       </c>
       <c r="E620" s="2"/>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" hidden="1" spans="1:5">
       <c r="A621" s="2" t="s">
         <v>596</v>
       </c>
@@ -43619,7 +43624,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" hidden="1" spans="1:5">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="3"/>
@@ -43630,7 +43635,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" hidden="1" spans="1:5">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="3"/>
@@ -43639,7 +43644,7 @@
       </c>
       <c r="E623" s="3"/>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" hidden="1" spans="1:5">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="3"/>
@@ -43648,7 +43653,7 @@
       </c>
       <c r="E624" s="3"/>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" hidden="1" spans="1:5">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="3"/>
@@ -43657,7 +43662,7 @@
       </c>
       <c r="E625" s="3"/>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" hidden="1" spans="1:5">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="3"/>
@@ -43666,7 +43671,7 @@
       </c>
       <c r="E626" s="3"/>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" hidden="1" spans="1:5">
       <c r="A627" s="2" t="s">
         <v>1114</v>
       </c>
@@ -43679,7 +43684,7 @@
       </c>
       <c r="E627" s="3"/>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" hidden="1" spans="1:5">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="3"/>
@@ -43688,7 +43693,7 @@
       </c>
       <c r="E628" s="3"/>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" hidden="1" spans="1:5">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="3"/>
@@ -43697,7 +43702,7 @@
       </c>
       <c r="E629" s="3"/>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" hidden="1" spans="1:5">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="3"/>
@@ -43706,7 +43711,7 @@
       </c>
       <c r="E630" s="3"/>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" hidden="1" spans="1:5">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="3"/>
@@ -43715,7 +43720,7 @@
       </c>
       <c r="E631" s="3"/>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" hidden="1" spans="1:5">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="3"/>
@@ -43724,7 +43729,7 @@
       </c>
       <c r="E632" s="3"/>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" hidden="1" spans="1:5">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="3"/>
@@ -43733,7 +43738,7 @@
       </c>
       <c r="E633" s="3"/>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" hidden="1" spans="1:5">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="3"/>
@@ -43742,7 +43747,7 @@
       </c>
       <c r="E634" s="3"/>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" hidden="1" spans="1:5">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="3"/>
@@ -43751,7 +43756,7 @@
       </c>
       <c r="E635" s="3"/>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" hidden="1" spans="1:5">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="3"/>
@@ -43760,7 +43765,7 @@
       </c>
       <c r="E636" s="3"/>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" hidden="1" spans="1:5">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="3"/>
@@ -43769,7 +43774,7 @@
       </c>
       <c r="E637" s="3"/>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" hidden="1" spans="1:5">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="3"/>
@@ -43778,7 +43783,7 @@
       </c>
       <c r="E638" s="3"/>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" hidden="1" spans="1:5">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="3"/>
@@ -43787,7 +43792,7 @@
       </c>
       <c r="E639" s="3"/>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" hidden="1" spans="1:5">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="3"/>
@@ -43796,7 +43801,7 @@
       </c>
       <c r="E640" s="3"/>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" hidden="1" spans="1:5">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="3"/>
@@ -43805,7 +43810,7 @@
       </c>
       <c r="E641" s="3"/>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" hidden="1" spans="1:5">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="3"/>
@@ -43814,7 +43819,7 @@
       </c>
       <c r="E642" s="3"/>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" hidden="1" spans="1:5">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="3"/>
@@ -43823,7 +43828,7 @@
       </c>
       <c r="E643" s="3"/>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" hidden="1" spans="1:5">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="3"/>
@@ -43832,7 +43837,7 @@
       </c>
       <c r="E644" s="3"/>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" hidden="1" spans="1:5">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="3"/>
@@ -43841,7 +43846,7 @@
       </c>
       <c r="E645" s="3"/>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" hidden="1" spans="1:5">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="3"/>
@@ -43850,7 +43855,7 @@
       </c>
       <c r="E646" s="3"/>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" hidden="1" spans="1:5">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="3"/>
@@ -43859,7 +43864,7 @@
       </c>
       <c r="E647" s="3"/>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" hidden="1" spans="1:5">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="3"/>
@@ -43868,7 +43873,7 @@
       </c>
       <c r="E648" s="3"/>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" hidden="1" spans="1:5">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="3"/>
@@ -43877,7 +43882,7 @@
       </c>
       <c r="E649" s="3"/>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" hidden="1" spans="1:5">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="3"/>
@@ -43886,7 +43891,7 @@
       </c>
       <c r="E650" s="3"/>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" hidden="1" spans="1:5">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="3"/>
@@ -43895,7 +43900,7 @@
       </c>
       <c r="E651" s="3"/>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" hidden="1" spans="1:5">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="3"/>
@@ -43904,7 +43909,7 @@
       </c>
       <c r="E652" s="3"/>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" hidden="1" spans="1:5">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="3"/>
@@ -43913,7 +43918,7 @@
       </c>
       <c r="E653" s="3"/>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" hidden="1" spans="1:5">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="3"/>
@@ -43922,7 +43927,7 @@
       </c>
       <c r="E654" s="3"/>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" hidden="1" spans="1:5">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="3"/>
@@ -43931,7 +43936,7 @@
       </c>
       <c r="E655" s="3"/>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" hidden="1" spans="1:5">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="3"/>
@@ -43940,14 +43945,14 @@
       </c>
       <c r="E656" s="3"/>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" hidden="1" spans="1:5">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" hidden="1" spans="1:5">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="3"/>
@@ -43956,14 +43961,14 @@
       </c>
       <c r="E658" s="3"/>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" hidden="1" spans="1:5">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" hidden="1" spans="1:5">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="3"/>
@@ -43972,14 +43977,14 @@
       </c>
       <c r="E660" s="3"/>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" hidden="1" spans="1:5">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" hidden="1" spans="1:5">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="3"/>
@@ -43988,14 +43993,14 @@
       </c>
       <c r="E662" s="3"/>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" hidden="1" spans="1:5">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" hidden="1" spans="1:5">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="3"/>
@@ -44004,14 +44009,14 @@
       </c>
       <c r="E664" s="3"/>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" hidden="1" spans="1:5">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" hidden="1" spans="1:5">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="3"/>
@@ -44020,14 +44025,14 @@
       </c>
       <c r="E666" s="3"/>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" hidden="1" spans="1:5">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" hidden="1" spans="1:5">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="3"/>
@@ -44036,14 +44041,14 @@
       </c>
       <c r="E668" s="3"/>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" hidden="1" spans="1:5">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" hidden="1" spans="1:5">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="3"/>
@@ -44052,14 +44057,14 @@
       </c>
       <c r="E670" s="3"/>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" hidden="1" spans="1:5">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" hidden="1" spans="1:5">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="3"/>
@@ -44068,14 +44073,14 @@
       </c>
       <c r="E672" s="3"/>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" hidden="1" spans="1:5">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" hidden="1" spans="1:5">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="3"/>
@@ -44084,14 +44089,14 @@
       </c>
       <c r="E674" s="3"/>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" hidden="1" spans="1:5">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" hidden="1" spans="1:5">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="3"/>
@@ -44100,14 +44105,14 @@
       </c>
       <c r="E676" s="3"/>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" hidden="1" spans="1:5">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" hidden="1" spans="1:5">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="3"/>
@@ -44116,14 +44121,14 @@
       </c>
       <c r="E678" s="3"/>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" hidden="1" spans="1:5">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" hidden="1" spans="1:5">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="3"/>
@@ -44132,14 +44137,14 @@
       </c>
       <c r="E680" s="3"/>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" hidden="1" spans="1:5">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" hidden="1" spans="1:5">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="3"/>
@@ -44148,14 +44153,14 @@
       </c>
       <c r="E682" s="3"/>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" hidden="1" spans="1:5">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" hidden="1" spans="1:5">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="3"/>
@@ -44164,14 +44169,14 @@
       </c>
       <c r="E684" s="3"/>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" hidden="1" spans="1:5">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" hidden="1" spans="1:5">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="3"/>
@@ -44180,14 +44185,14 @@
       </c>
       <c r="E686" s="3"/>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" hidden="1" spans="1:5">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" hidden="1" spans="1:5">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="3"/>
@@ -44196,14 +44201,14 @@
       </c>
       <c r="E688" s="3"/>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" hidden="1" spans="1:5">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" hidden="1" spans="1:5">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="3"/>
@@ -44212,14 +44217,14 @@
       </c>
       <c r="E690" s="3"/>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" hidden="1" spans="1:5">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" hidden="1" spans="1:5">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="3"/>
@@ -44228,14 +44233,14 @@
       </c>
       <c r="E692" s="3"/>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" hidden="1" spans="1:5">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" hidden="1" spans="1:5">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="3"/>
@@ -44244,14 +44249,14 @@
       </c>
       <c r="E694" s="3"/>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" hidden="1" spans="1:5">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" hidden="1" spans="1:5">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="3"/>
@@ -44260,14 +44265,14 @@
       </c>
       <c r="E696" s="3"/>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" hidden="1" spans="1:5">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" hidden="1" spans="1:5">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="3"/>
@@ -44276,14 +44281,14 @@
       </c>
       <c r="E698" s="3"/>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" hidden="1" spans="1:5">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" hidden="1" spans="1:5">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="3"/>
@@ -44292,14 +44297,14 @@
       </c>
       <c r="E700" s="3"/>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" hidden="1" spans="1:5">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" hidden="1" spans="1:5">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="3"/>
@@ -44308,14 +44313,14 @@
       </c>
       <c r="E702" s="3"/>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" hidden="1" spans="1:5">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" hidden="1" spans="1:5">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="3"/>
@@ -44324,14 +44329,14 @@
       </c>
       <c r="E704" s="3"/>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" hidden="1" spans="1:5">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" hidden="1" spans="1:5">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="3"/>
@@ -44340,14 +44345,14 @@
       </c>
       <c r="E706" s="3"/>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" hidden="1" spans="1:5">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" hidden="1" spans="1:5">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="3"/>
@@ -44356,14 +44361,14 @@
       </c>
       <c r="E708" s="3"/>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" hidden="1" spans="1:5">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" hidden="1" spans="1:5">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="3"/>
@@ -44372,14 +44377,14 @@
       </c>
       <c r="E710" s="3"/>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" hidden="1" spans="1:5">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" hidden="1" spans="1:5">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="3"/>
@@ -44388,14 +44393,14 @@
       </c>
       <c r="E712" s="3"/>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" hidden="1" spans="1:5">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" hidden="1" spans="1:5">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="3"/>
@@ -44404,14 +44409,14 @@
       </c>
       <c r="E714" s="3"/>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" hidden="1" spans="1:5">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" hidden="1" spans="1:5">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="3"/>
@@ -44420,14 +44425,14 @@
       </c>
       <c r="E716" s="3"/>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" hidden="1" spans="1:5">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" hidden="1" spans="1:5">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="3"/>
@@ -44436,14 +44441,14 @@
       </c>
       <c r="E718" s="3"/>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" hidden="1" spans="1:5">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" hidden="1" spans="1:5">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="3"/>
@@ -44452,14 +44457,14 @@
       </c>
       <c r="E720" s="3"/>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" hidden="1" spans="1:5">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" hidden="1" spans="1:5">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="3"/>
@@ -44468,14 +44473,14 @@
       </c>
       <c r="E722" s="3"/>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" hidden="1" spans="1:5">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" hidden="1" spans="1:5">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="3"/>
@@ -44484,14 +44489,14 @@
       </c>
       <c r="E724" s="3"/>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" hidden="1" spans="1:5">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" hidden="1" spans="1:5">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="3"/>
@@ -44500,14 +44505,14 @@
       </c>
       <c r="E726" s="3"/>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" hidden="1" spans="1:5">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" hidden="1" spans="1:5">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="3"/>
@@ -44516,14 +44521,14 @@
       </c>
       <c r="E728" s="3"/>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" hidden="1" spans="1:5">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" hidden="1" spans="1:5">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="3"/>
@@ -44532,14 +44537,14 @@
       </c>
       <c r="E730" s="3"/>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" hidden="1" spans="1:5">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" hidden="1" spans="1:5">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="3"/>
@@ -44548,14 +44553,14 @@
       </c>
       <c r="E732" s="3"/>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" hidden="1" spans="1:5">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" hidden="1" spans="1:5">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="3"/>
@@ -44564,14 +44569,14 @@
       </c>
       <c r="E734" s="3"/>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" hidden="1" spans="1:5">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" hidden="1" spans="1:5">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="3"/>
@@ -44580,14 +44585,14 @@
       </c>
       <c r="E736" s="3"/>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" hidden="1" spans="1:5">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" hidden="1" spans="1:5">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="3"/>
@@ -44596,14 +44601,14 @@
       </c>
       <c r="E738" s="3"/>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" hidden="1" spans="1:5">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" hidden="1" spans="1:5">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="3"/>
@@ -44612,14 +44617,14 @@
       </c>
       <c r="E740" s="3"/>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" hidden="1" spans="1:5">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
       <c r="E741" s="3"/>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" hidden="1" spans="1:5">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="3"/>
@@ -44628,14 +44633,14 @@
       </c>
       <c r="E742" s="3"/>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" hidden="1" spans="1:5">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
       <c r="E743" s="3"/>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" hidden="1" spans="1:5">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="3"/>
@@ -44644,14 +44649,14 @@
       </c>
       <c r="E744" s="3"/>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" hidden="1" spans="1:5">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
       <c r="E745" s="3"/>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" hidden="1" spans="1:5">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="3"/>
@@ -44660,14 +44665,14 @@
       </c>
       <c r="E746" s="3"/>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" hidden="1" spans="1:5">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
       <c r="E747" s="3"/>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" hidden="1" spans="1:5">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="3"/>
@@ -44676,14 +44681,14 @@
       </c>
       <c r="E748" s="3"/>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" hidden="1" spans="1:5">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
       <c r="E749" s="3"/>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" hidden="1" spans="1:5">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="3"/>
@@ -44692,14 +44697,14 @@
       </c>
       <c r="E750" s="3"/>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" hidden="1" spans="1:5">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
       <c r="E751" s="3"/>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" hidden="1" spans="1:5">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="3"/>
@@ -44708,14 +44713,14 @@
       </c>
       <c r="E752" s="3"/>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" hidden="1" spans="1:5">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
       <c r="E753" s="3"/>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" hidden="1" spans="1:5">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="3"/>
@@ -44724,14 +44729,14 @@
       </c>
       <c r="E754" s="3"/>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" hidden="1" spans="1:5">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
       <c r="E755" s="3"/>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" hidden="1" spans="1:5">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="3"/>
@@ -44740,14 +44745,14 @@
       </c>
       <c r="E756" s="3"/>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" hidden="1" spans="1:5">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
       <c r="E757" s="3"/>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" hidden="1" spans="1:5">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="3"/>
@@ -44756,14 +44761,14 @@
       </c>
       <c r="E758" s="3"/>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" hidden="1" spans="1:5">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
       <c r="E759" s="3"/>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" hidden="1" spans="1:5">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="3"/>
@@ -44772,14 +44777,14 @@
       </c>
       <c r="E760" s="3"/>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" hidden="1" spans="1:5">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
       <c r="E761" s="3"/>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" hidden="1" spans="1:5">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="3"/>
@@ -44788,7 +44793,7 @@
       </c>
       <c r="E762" s="3"/>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" hidden="1" spans="1:5">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="3"/>
@@ -44797,14 +44802,14 @@
       </c>
       <c r="E763" s="3"/>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" hidden="1" spans="1:5">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
       <c r="E764" s="3"/>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" hidden="1" spans="1:5">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="3"/>
@@ -44813,14 +44818,14 @@
       </c>
       <c r="E765" s="3"/>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" hidden="1" spans="1:5">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
       <c r="E766" s="3"/>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" hidden="1" spans="1:5">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="3"/>
@@ -44829,7 +44834,7 @@
       </c>
       <c r="E767" s="3"/>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" hidden="1" spans="1:5">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="3"/>
@@ -44838,14 +44843,14 @@
       </c>
       <c r="E768" s="3"/>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" hidden="1" spans="1:5">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
       <c r="E769" s="3"/>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" hidden="1" spans="1:5">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="3"/>
@@ -44854,7 +44859,7 @@
       </c>
       <c r="E770" s="3"/>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" hidden="1" spans="1:5">
       <c r="A771" s="2" t="s">
         <v>1115</v>
       </c>
@@ -44869,7 +44874,7 @@
       </c>
       <c r="E771" s="3"/>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" hidden="1" spans="1:5">
       <c r="A772" s="2" t="s">
         <v>1116</v>
       </c>
@@ -44886,7 +44891,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" hidden="1" spans="1:5">
       <c r="A773" s="2"/>
       <c r="B773" s="3"/>
       <c r="C773" s="2"/>
@@ -44897,7 +44902,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" hidden="1" spans="1:5">
       <c r="A774" s="2"/>
       <c r="B774" s="3"/>
       <c r="C774" s="2"/>
@@ -44908,7 +44913,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" hidden="1" spans="1:5">
       <c r="A775" s="2"/>
       <c r="B775" s="3"/>
       <c r="C775" s="2"/>
@@ -44919,7 +44924,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" hidden="1" spans="1:5">
       <c r="A776" s="2" t="s">
         <v>881</v>
       </c>
@@ -44934,7 +44939,7 @@
       </c>
       <c r="E776" s="3"/>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" hidden="1" spans="1:5">
       <c r="A777" s="2" t="s">
         <v>1117</v>
       </c>
@@ -44949,7 +44954,7 @@
       </c>
       <c r="E777" s="3"/>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" hidden="1" spans="1:5">
       <c r="A778" s="2" t="s">
         <v>1118</v>
       </c>
@@ -44964,7 +44969,7 @@
       </c>
       <c r="E778" s="3"/>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" hidden="1" spans="1:5">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -44973,7 +44978,7 @@
       </c>
       <c r="E779" s="3"/>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" hidden="1" spans="1:5">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -44982,7 +44987,7 @@
       </c>
       <c r="E780" s="3"/>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" hidden="1" spans="1:5">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -44991,7 +44996,7 @@
       </c>
       <c r="E781" s="3"/>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" hidden="1" spans="1:5">
       <c r="A782" s="2" t="s">
         <v>965</v>
       </c>
@@ -45006,7 +45011,7 @@
       </c>
       <c r="E782" s="3"/>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" hidden="1" spans="1:5">
       <c r="A783" s="2" t="s">
         <v>1119</v>
       </c>
@@ -45021,7 +45026,7 @@
       </c>
       <c r="E783" s="3"/>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" hidden="1" spans="1:5">
       <c r="A784" s="2" t="s">
         <v>1120</v>
       </c>
@@ -45036,7 +45041,7 @@
       </c>
       <c r="E784" s="3"/>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" hidden="1" spans="1:5">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -45045,7 +45050,7 @@
       </c>
       <c r="E785" s="3"/>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" hidden="1" spans="1:5">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -45054,7 +45059,7 @@
       </c>
       <c r="E786" s="3"/>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" hidden="1" spans="1:5">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -45063,7 +45068,7 @@
       </c>
       <c r="E787" s="3"/>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" hidden="1" spans="1:5">
       <c r="A788" s="2" t="s">
         <v>920</v>
       </c>
@@ -45078,7 +45083,7 @@
       </c>
       <c r="E788" s="3"/>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" hidden="1" spans="1:5">
       <c r="A789" s="2" t="s">
         <v>1121</v>
       </c>
@@ -45093,7 +45098,7 @@
       </c>
       <c r="E789" s="3"/>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" hidden="1" spans="1:5">
       <c r="A790" s="2" t="s">
         <v>1122</v>
       </c>
@@ -45108,7 +45113,7 @@
       </c>
       <c r="E790" s="3"/>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" hidden="1" spans="1:5">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -45117,7 +45122,7 @@
       </c>
       <c r="E791" s="3"/>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" hidden="1" spans="1:5">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -45126,7 +45131,7 @@
       </c>
       <c r="E792" s="3"/>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" hidden="1" spans="1:5">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -45135,7 +45140,7 @@
       </c>
       <c r="E793" s="3"/>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" hidden="1" spans="1:5">
       <c r="A794" s="2" t="s">
         <v>918</v>
       </c>
@@ -45150,7 +45155,7 @@
       </c>
       <c r="E794" s="3"/>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" hidden="1" spans="1:5">
       <c r="A795" s="2" t="s">
         <v>1123</v>
       </c>
@@ -45165,7 +45170,7 @@
       </c>
       <c r="E795" s="3"/>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" hidden="1" spans="1:5">
       <c r="A796" s="2" t="s">
         <v>1124</v>
       </c>
@@ -45180,7 +45185,7 @@
       </c>
       <c r="E796" s="3"/>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" hidden="1" spans="1:5">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -45189,7 +45194,7 @@
       </c>
       <c r="E797" s="3"/>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" hidden="1" spans="1:5">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -45198,7 +45203,7 @@
       </c>
       <c r="E798" s="3"/>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" hidden="1" spans="1:5">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -45207,7 +45212,7 @@
       </c>
       <c r="E799" s="3"/>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" hidden="1" spans="1:5">
       <c r="A800" s="2" t="s">
         <v>1125</v>
       </c>
@@ -45222,7 +45227,7 @@
       </c>
       <c r="E800" s="3"/>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" hidden="1" spans="1:5">
       <c r="A801" s="2" t="s">
         <v>1126</v>
       </c>
@@ -45237,7 +45242,7 @@
       </c>
       <c r="E801" s="3"/>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" hidden="1" spans="1:5">
       <c r="A802" s="2" t="s">
         <v>1127</v>
       </c>
@@ -45254,7 +45259,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" hidden="1" spans="1:5">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -45265,7 +45270,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" hidden="1" spans="1:5">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -45276,7 +45281,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" hidden="1" spans="1:5">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -45287,7 +45292,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" hidden="1" spans="1:5">
       <c r="A806" s="2" t="s">
         <v>769</v>
       </c>
@@ -45302,7 +45307,7 @@
       </c>
       <c r="E806" s="3"/>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" hidden="1" spans="1:5">
       <c r="A807" s="2" t="s">
         <v>1131</v>
       </c>
@@ -45317,7 +45322,7 @@
       </c>
       <c r="E807" s="3"/>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" hidden="1" spans="1:5">
       <c r="A808" s="2" t="s">
         <v>1132</v>
       </c>
@@ -45332,7 +45337,7 @@
       </c>
       <c r="E808" s="3"/>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" hidden="1" spans="1:5">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -45341,7 +45346,7 @@
       </c>
       <c r="E809" s="3"/>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" hidden="1" spans="1:5">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -45350,7 +45355,7 @@
       </c>
       <c r="E810" s="3"/>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" hidden="1" spans="1:5">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -45359,7 +45364,7 @@
       </c>
       <c r="E811" s="3"/>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" hidden="1" spans="1:5">
       <c r="A812" s="2" t="s">
         <v>937</v>
       </c>
@@ -45374,7 +45379,7 @@
       </c>
       <c r="E812" s="3"/>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" hidden="1" spans="1:5">
       <c r="A813" s="2" t="s">
         <v>1133</v>
       </c>
@@ -45389,7 +45394,7 @@
       </c>
       <c r="E813" s="3"/>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" hidden="1" spans="1:5">
       <c r="A814" s="2" t="s">
         <v>1134</v>
       </c>
@@ -45406,7 +45411,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" hidden="1" spans="1:5">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -45417,7 +45422,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" hidden="1" spans="1:5">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -45428,7 +45433,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" hidden="1" spans="1:5">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -45439,7 +45444,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" hidden="1" spans="1:5">
       <c r="A818" s="2" t="s">
         <v>1135</v>
       </c>
@@ -45454,7 +45459,7 @@
       </c>
       <c r="E818" s="3"/>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" hidden="1" spans="1:5">
       <c r="A819" s="2" t="s">
         <v>1136</v>
       </c>
@@ -45469,7 +45474,7 @@
       </c>
       <c r="E819" s="3"/>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" hidden="1" spans="1:5">
       <c r="A820" s="2" t="s">
         <v>1137</v>
       </c>
@@ -45486,7 +45491,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" hidden="1" spans="1:5">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -45497,7 +45502,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" hidden="1" spans="1:5">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -45508,7 +45513,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" hidden="1" spans="1:5">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -45519,7 +45524,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" hidden="1" spans="1:5">
       <c r="A824" s="2" t="s">
         <v>944</v>
       </c>
@@ -45534,7 +45539,7 @@
       </c>
       <c r="E824" s="3"/>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" hidden="1" spans="1:5">
       <c r="A825" s="2" t="s">
         <v>1138</v>
       </c>
@@ -45549,7 +45554,7 @@
       </c>
       <c r="E825" s="3"/>
     </row>
-    <row r="826" spans="1:5">
+    <row r="826" hidden="1" spans="1:5">
       <c r="A826" s="2" t="s">
         <v>1139</v>
       </c>
@@ -45566,7 +45571,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="827" spans="1:5">
+    <row r="827" hidden="1" spans="1:5">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -45577,7 +45582,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" hidden="1" spans="1:5">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -45588,7 +45593,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" hidden="1" spans="1:5">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -45599,7 +45604,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="830" spans="1:5">
+    <row r="830" hidden="1" spans="1:5">
       <c r="A830" s="2" t="s">
         <v>922</v>
       </c>
@@ -45614,7 +45619,7 @@
       </c>
       <c r="E830" s="3"/>
     </row>
-    <row r="831" spans="1:5">
+    <row r="831" hidden="1" spans="1:5">
       <c r="A831" s="2" t="s">
         <v>1140</v>
       </c>
@@ -45629,7 +45634,7 @@
       </c>
       <c r="E831" s="3"/>
     </row>
-    <row r="832" spans="1:5">
+    <row r="832" hidden="1" spans="1:5">
       <c r="A832" s="2" t="s">
         <v>1141</v>
       </c>
@@ -45646,7 +45651,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="833" spans="1:5">
+    <row r="833" hidden="1" spans="1:5">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -45657,7 +45662,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" hidden="1" spans="1:5">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -45668,7 +45673,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="835" spans="1:5">
+    <row r="835" hidden="1" spans="1:5">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -45679,7 +45684,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="836" spans="1:5">
+    <row r="836" hidden="1" spans="1:5">
       <c r="A836" s="2" t="s">
         <v>976</v>
       </c>
@@ -45694,7 +45699,7 @@
       </c>
       <c r="E836" s="3"/>
     </row>
-    <row r="837" spans="1:5">
+    <row r="837" hidden="1" spans="1:5">
       <c r="A837" s="2" t="s">
         <v>1115</v>
       </c>
@@ -45709,7 +45714,7 @@
       </c>
       <c r="E837" s="3"/>
     </row>
-    <row r="838" spans="1:5">
+    <row r="838" hidden="1" spans="1:5">
       <c r="A838" s="2" t="s">
         <v>1116</v>
       </c>
@@ -45726,7 +45731,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="839" spans="1:5">
+    <row r="839" hidden="1" spans="1:5">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -45737,7 +45742,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" hidden="1" spans="1:5">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -45748,7 +45753,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="841" spans="1:5">
+    <row r="841" hidden="1" spans="1:5">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -45761,6 +45766,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E841">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="101182"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="318">
